--- a/www/POA_2025_PASNAP.xlsx
+++ b/www/POA_2025_PASNAP.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtimae\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtimae\Documents\GitHub\PASNAP\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D001C0-9427-4693-8FCB-33124FE8DD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C74EE97-F734-4916-87D9-55400DFAEE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POA PASNAP II 2025" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="POA Páramo 2025" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$3:$AS$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'POA PASNAP II 2025'!$A$3:$P$98</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'POA PASNAP II 2025'!$3:$5</definedName>
   </definedNames>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="374">
   <si>
     <t xml:space="preserve">Medidas </t>
   </si>
@@ -810,135 +809,432 @@
     </r>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>ARENILLAS</t>
-  </si>
-  <si>
-    <t>MANGLARES ESTUARIO DEL RIO MUISNE</t>
-  </si>
-  <si>
-    <t>PACOCHE</t>
-  </si>
-  <si>
-    <t>EL PELADO</t>
-  </si>
-  <si>
-    <t>CANTAGALLO-MACHALILLA</t>
-  </si>
-  <si>
-    <t>BAJO COPE</t>
-  </si>
-  <si>
-    <t>COTOPAXI</t>
-  </si>
-  <si>
-    <t>LLANGANATES</t>
-  </si>
-  <si>
-    <t>MACHALILLA</t>
-  </si>
-  <si>
-    <t>PODOCARPUS</t>
-  </si>
-  <si>
-    <t>SANGAY</t>
-  </si>
-  <si>
-    <t>SUMACO NAPO-GALERAS</t>
-  </si>
-  <si>
-    <t>ANTISANA</t>
-  </si>
-  <si>
-    <t>EL ANGEL</t>
-  </si>
-  <si>
-    <t>CAYAMBE-COCA</t>
-  </si>
-  <si>
-    <t>MANGLARES CAYAPAS-MATAJE</t>
-  </si>
-  <si>
-    <t>COFAN BERMEJO</t>
-  </si>
-  <si>
-    <t>COTACACHI-CAYAPAS</t>
-  </si>
-  <si>
-    <t>LOS ILINIZAS</t>
-  </si>
-  <si>
-    <t>MACHE CHINDUL</t>
-  </si>
-  <si>
-    <t>MANGLARES CHURUTE</t>
-  </si>
-  <si>
-    <t>CHIMBORAZO</t>
-  </si>
-  <si>
-    <t>EL BOLICHE</t>
-  </si>
-  <si>
-    <t>ISLA CORAZON Y LAS ISLAS FRAGATAS</t>
-  </si>
-  <si>
-    <t>PUNTILLA SANTA ELENA</t>
-  </si>
-  <si>
-    <t>GALERA SAN FRANCISCO</t>
-  </si>
-  <si>
-    <t>YACURI</t>
-  </si>
-  <si>
-    <t>CERRO PLATEADO</t>
-  </si>
-  <si>
-    <t>Infraestructura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monto </t>
-  </si>
-  <si>
-    <t>Convenios</t>
-  </si>
-  <si>
-    <t>Construcción de guardianía, baterías sanitarías, senderos y casetas de sombra Cayapas-Mataje, ubicada en Majagual, cantón Eloy Alfaro</t>
-  </si>
-  <si>
-    <t>Dotación de motocicletas</t>
-  </si>
-  <si>
-    <t>Dotación de Drones (2)</t>
-  </si>
-  <si>
-    <t>Elaboración de tres planes de ordenamiento pesquero con la participación de los actores locales para las áreas protegidas marino costeras</t>
-  </si>
-  <si>
-    <t>Monto</t>
+    <r>
+      <t xml:space="preserve">Ministerio del Ambiente, Agua y Transición Ecológica - KfW 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Programa Nacional de la Gestión de la Biodiversidad y Recursos Hídricos (Páramo) - Ecuador
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Plan Operativo Anual (POA) 2025</t>
+    </r>
+  </si>
+  <si>
+    <t>Objetos nuevos 2025</t>
+  </si>
+  <si>
+    <t>Objetos de arrastre 2024 en ejecución</t>
+  </si>
+  <si>
+    <t>Objetos de arrastre 2024 por ejecutar</t>
+  </si>
+  <si>
+    <t>Financiamiento (EUR)</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Trimestre</t>
+  </si>
+  <si>
+    <t>Áreas de Intervención 2025</t>
+  </si>
+  <si>
+    <t>KfW TOTAL POG</t>
+  </si>
+  <si>
+    <t>COMPONENTE I : MANEJO EFECTIVO DE ÁREAS PROTEGIDAS (AP) PRIORIZADAS EN ECOSISTEMAS DE MONTAÑA</t>
+  </si>
+  <si>
+    <t>Fortalecimiento de la Dirección de Áreas Protegidas y Otras Formas de Conservación para una gestión efectiva de las áreas protegidas</t>
+  </si>
+  <si>
+    <t>Fortalecimiento de la DAPOFC para una gestión efectiva de las AP</t>
+  </si>
+  <si>
+    <t>1.01.03</t>
+  </si>
+  <si>
+    <t>Capacitación para la aplicación de la herramienta Gobernómetro en el Sistema Nacional de Áreas Protegidas</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>1.01.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo de las fichas de los indicadores del Plan Estrategico </t>
+  </si>
+  <si>
+    <t>1.01.05</t>
+  </si>
+  <si>
+    <t>Actualización de la Estrategía de Sostenibilidad Financiera y analisis de brechas de financiamiento</t>
+  </si>
+  <si>
+    <t>1.01.06</t>
+  </si>
+  <si>
+    <t>Análisis de percepción de actores locales del Subsistema Estatal del SNAP</t>
+  </si>
+  <si>
+    <t>1.01.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortalecimiento de capacidades (implementación de los programas de manejo; gestión de conflicos; gestión de áreas protegidas, liderazgo, etc.) </t>
+  </si>
+  <si>
+    <t>DAPOFC</t>
+  </si>
+  <si>
+    <t>1.01.08</t>
+  </si>
+  <si>
+    <t>Equipamiento (muebles, equipos informáticos con licencias)</t>
+  </si>
+  <si>
+    <t>Total Fortalecimiento DAPOFC</t>
+  </si>
+  <si>
+    <t>Fortalecimiento de la gestión efectiva de AP priorizadas</t>
+  </si>
+  <si>
+    <t>Elaboración de instrumentos para el manejo y gestión de las AP</t>
+  </si>
+  <si>
+    <t>Actualización de los planes de manejo para el PN Sangay y la RPF Chimborazo</t>
+  </si>
+  <si>
+    <t>Sangay y Chimborazo</t>
+  </si>
+  <si>
+    <t>1.02.02</t>
+  </si>
+  <si>
+    <t>Actualización de los lineamientos para la elaboración del Plan de Manejo de Visitantes (PMV)</t>
+  </si>
+  <si>
+    <t>1.02.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación y actualización de los sistemas de radiocomunicación implementados en AP priorizadas </t>
+  </si>
+  <si>
+    <t>Ilinizas; Cotacachi Cayapas; Cayambe Coca; Chimborazo; Sangay</t>
+  </si>
+  <si>
+    <t>Sub total</t>
+  </si>
+  <si>
+    <t>Construcción de infraestructura administrativa y operativa</t>
+  </si>
+  <si>
+    <t>1.02.11</t>
+  </si>
+  <si>
+    <t>Construcción de oficinas administrativas y guardianía y readecuación de bodega en el sector de Pilongo de la Reserva Ecológica Los Ilinizas Zona Alta</t>
+  </si>
+  <si>
+    <t>Ilinizas ZA</t>
+  </si>
+  <si>
+    <t>1.02.13</t>
+  </si>
+  <si>
+    <t>Adquisición de garitas para control y vigilancia en el ingreso hacia el Volcán Corazón y en el sector de Samilpamba (parroquia Tanicuchí) de la RE Los Ilinizas Zona Alta</t>
+  </si>
+  <si>
+    <t>1.02.14</t>
+  </si>
+  <si>
+    <t>Construcción de un puesto de control y vigilancia en el sector de Cununyacu de la RE Los Ilinizas Zona Alta</t>
+  </si>
+  <si>
+    <t>1.02.17</t>
+  </si>
+  <si>
+    <t>Repotenciación del sistema de paneles solares fotovoltaicos ubicados en los refugios Hnos. Carrel y Whymper de la RPF Chimborazo</t>
+  </si>
+  <si>
+    <t>Chimborazo</t>
+  </si>
+  <si>
+    <t>Bienes/Servicio</t>
+  </si>
+  <si>
+    <t>1.02.18</t>
+  </si>
+  <si>
+    <t>Adecuación de los parqueaderos del Centro de Servicios Turísticos ubicados en "El Arenal" de la RPF Chimborazo</t>
+  </si>
+  <si>
+    <t>1.02.19</t>
+  </si>
+  <si>
+    <t>Readecuación de las instalaciones turísticas de los refugios de alta montaña Hrnos. Carrel y Whimper y mejoramiento de parqueadero del refugio Carrel de la RPF Chimborazo</t>
+  </si>
+  <si>
+    <t>1.02.25</t>
+  </si>
+  <si>
+    <t>Readecuación de la guardianía ubicada en el sector de "Alao" y reconstrucción del taller de mantenimiento del PN Sangay Zona Alta</t>
+  </si>
+  <si>
+    <t>Sangay ZA</t>
+  </si>
+  <si>
+    <t>1.02.26</t>
+  </si>
+  <si>
+    <t>Construcción de guardianía ubicada en el sector de "Monay" del PN Sangay Zona Sur</t>
+  </si>
+  <si>
+    <t>Sangay ZS</t>
+  </si>
+  <si>
+    <t>1.02.34</t>
+  </si>
+  <si>
+    <t>Construcción de puesto de control antes de llegar al sector de "El Arenal" y adecuación de senderos hacia el refugio del PN Cayambe-Coca Zona Alta</t>
+  </si>
+  <si>
+    <t>Cayambe-Coca ZA</t>
+  </si>
+  <si>
+    <t>1.02.35</t>
+  </si>
+  <si>
+    <t>Adecuación de la guardianía ubicada en el sector de "Piemonte" del PN Cayambe-Coca Zona Alta</t>
+  </si>
+  <si>
+    <t>1.02.37</t>
+  </si>
+  <si>
+    <t>Readecuación del Centro de Interpretación ubicado en el sector de la laguna de Cuicocha del PN Cotacachi-Cayapas Zona Alta</t>
+  </si>
+  <si>
+    <t>Cotacachi-Cayapas ZA</t>
+  </si>
+  <si>
+    <t>1.02.38</t>
+  </si>
+  <si>
+    <t>Construcción de la guardianía ubicada en el sector de "León Febres Cordero" del PN Cotacachi-Cayapas</t>
+  </si>
+  <si>
+    <t>Cotacachi-Cayapas</t>
+  </si>
+  <si>
+    <t>Provisión de equipamiento para un Control y Vigilancia efectivo</t>
+  </si>
+  <si>
+    <t>1.02.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adquisición de camionetas 4x4 para AP priorizadas</t>
+  </si>
+  <si>
+    <t>Ilinizas, Cotacachi-Cayapas, Cayambe-Coca, Chimborazo, Sangay</t>
+  </si>
+  <si>
+    <t>1.02.43</t>
+  </si>
+  <si>
+    <t>Adquisición de motos para AP priorizadas</t>
+  </si>
+  <si>
+    <t>1.02.44</t>
+  </si>
+  <si>
+    <t>Equipamiento (Sistemas de radiocomunicación, GPS, drones, cámaras fotográficas, computadoras, laptops, entre otros)</t>
+  </si>
+  <si>
+    <t>Fortalecimiento de capacidades</t>
+  </si>
+  <si>
+    <t>1.02.45</t>
+  </si>
+  <si>
+    <t>Implementación del Programa Aula Verde (capacitación en gestión de áreas protegidas, programas de manejo, manejo de plataformas informaticas para la implementación de programas de C&amp;V, gestión de conflicos, entre otros)</t>
+  </si>
+  <si>
+    <t>Total Fortalecimiento de la gestión de AP´s</t>
+  </si>
+  <si>
+    <t>Monitoreo de biodiversidad</t>
+  </si>
+  <si>
+    <t>1.03.01</t>
+  </si>
+  <si>
+    <t>Ecosistemas Páramo priorizados</t>
+  </si>
+  <si>
+    <t>Total Monitoreo de Biodiversidad</t>
+  </si>
+  <si>
+    <t>Gestión de incendios</t>
+  </si>
+  <si>
+    <t>Gestión de Incendios</t>
+  </si>
+  <si>
+    <t>Fortalecimiento capacidades Manejo Integral del Fuego - MIF</t>
+  </si>
+  <si>
+    <t>1.04.02</t>
+  </si>
+  <si>
+    <t>Diseño de un Sistema de Alerta Temprana para el Manejo Integral del Fuego</t>
+  </si>
+  <si>
+    <t>1.04.03</t>
+  </si>
+  <si>
+    <t>Adquisición de implementos para la gestión del fuego</t>
+  </si>
+  <si>
+    <t>Total Gestión de Incendios</t>
+  </si>
+  <si>
+    <t>COMPONENTE II: ESTABLECER Y FORTALECER MECANISMOS EFICACES PARA LA CONSERVACIÓN DE LA BIODIVERSIDAD Y LOS RECURSOS HÍDRICOS EN ECOSISTEMAS DE MONTAÑA</t>
+  </si>
+  <si>
+    <t>Elaboración de documentos de gestión para áreas de conservación</t>
+  </si>
+  <si>
+    <t>Elaboración de planes técnicos de manejo participativo para tres (3) Bosques y Vegetación Protectora</t>
+  </si>
+  <si>
+    <t>BVP priorizados (Pichincha y Azuay)</t>
+  </si>
+  <si>
+    <t>Total Documentos de Gestión</t>
+  </si>
+  <si>
+    <t>Implementación de planes de manejo y modelos de gestión</t>
+  </si>
+  <si>
+    <t>Apoyo al Fondo para la Protección del Agua (FONAG) para a la conservación y sensibilización ambiental en el Bosque Protector Flanco Oriental y Cinturón Verde de Quito (convenio interinstitucional con FONAG)</t>
+  </si>
+  <si>
+    <t>Flanco Oriental y Cinturón Verde de Quito</t>
+  </si>
+  <si>
+    <t>Apoyo a la implementación de los planes de manejo de las APH Huambaló-La Moya, Teligote y San Jorge de Patate (convenio interinstitucional con el GAD Provincial de Tungurahua)</t>
+  </si>
+  <si>
+    <t>APH Huambaló La Moya, Teligote y San Jorge de Patate</t>
+  </si>
+  <si>
+    <t>2.02.04</t>
+  </si>
+  <si>
+    <t>Apoyo a la implementación del plan de manejo integral para la conservación de la subcuenca del Río Machángara e implementación de acciones para la conservación de ecosistemas representados en BVP de la cuenca del Río Paute (convenio interinstitucional con el Comité de Conservación de la subcuenca del Río Machángara y FONAPA)</t>
+  </si>
+  <si>
+    <t>Subcuenca del Río Machángara y Cuenca del Río Paute (15 AP del interior)</t>
+  </si>
+  <si>
+    <t>Implementación de modelos de gestión de los BVP</t>
+  </si>
+  <si>
+    <t>BVP priorizados (Pichincha)</t>
+  </si>
+  <si>
+    <t>Consultorías/Servicio</t>
+  </si>
+  <si>
+    <t>Total implementación de planes de manejo</t>
+  </si>
+  <si>
+    <t>COMPONENTE III: Desarrollar mecanismos de financiamiento para la conservación de ecosistemas de montaña y sus recursos hídricos.</t>
+  </si>
+  <si>
+    <t>Desarrollar mecanismos de financiamiento para la conservación de ecosistemas de montaña y sus recursos hídricos</t>
+  </si>
+  <si>
+    <t>3.01.01</t>
+  </si>
+  <si>
+    <t>Apoyo al incentivo BAN Ecuador para actividades productivas sostenibles</t>
+  </si>
+  <si>
+    <t>Áreas priorizadas del Programa</t>
+  </si>
+  <si>
+    <t>Total Mecanismos de Financiamiento</t>
+  </si>
+  <si>
+    <t>GESTIÓN DEL PROGRAMA</t>
+  </si>
+  <si>
+    <t>Contrato</t>
+  </si>
+  <si>
+    <t>Coordinador Técnico de Programa</t>
+  </si>
+  <si>
+    <t>Especilaista Técnico</t>
+  </si>
+  <si>
+    <t>5.02.06</t>
+  </si>
+  <si>
+    <t>5.02.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio de Administración de Fondos (Fee) </t>
+  </si>
+  <si>
+    <t>Eventos, reuniones, talleres</t>
+  </si>
+  <si>
+    <t>Total Gestión del Programa</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>Imprevistos</t>
+  </si>
+  <si>
+    <t>6.01.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;\-#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;\-#,##0.00"/>
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_€_-;\-* #,##0_€_-;_-* &quot;-&quot;_€_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1052,55 +1348,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FFC30000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FFC30000"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC30000"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1157,27 +1444,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1818,16 +2090,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="610">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2384,6 +2822,27 @@
     <xf numFmtId="4" fontId="4" fillId="8" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="8" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2684,94 +3143,939 @@
     <xf numFmtId="166" fontId="5" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="8" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="20" fillId="10" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="22" fillId="12" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="11" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="11" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="15" fillId="13" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="10" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="23" fillId="11" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="58" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="20" fillId="10" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="62" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="58" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="23" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="49" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="22" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="50" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="58" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="10" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="47" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="40% - Énfasis5" xfId="5" builtinId="47"/>
-    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
-    <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Moneda 2" xfId="2" xr:uid="{CE563C8D-4209-4FB0-ADB8-E05B6D8D220D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3098,118 +4402,118 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="263" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="257"/>
-      <c r="E2" s="257"/>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="257"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="257"/>
-      <c r="L2" s="257"/>
-      <c r="M2" s="257"/>
-      <c r="N2" s="257"/>
-      <c r="O2" s="257"/>
-      <c r="P2" s="258"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="265"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="199" t="s">
+      <c r="B3" s="207"/>
+      <c r="C3" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="259" t="s">
+      <c r="D3" s="208"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="266" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="260"/>
-      <c r="L3" s="264" t="s">
+      <c r="K3" s="267"/>
+      <c r="L3" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="265"/>
-      <c r="N3" s="265"/>
-      <c r="O3" s="265"/>
-      <c r="P3" s="266"/>
+      <c r="M3" s="272"/>
+      <c r="N3" s="272"/>
+      <c r="O3" s="272"/>
+      <c r="P3" s="273"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="224" t="s">
+      <c r="C4" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="195" t="s">
+      <c r="D4" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="197" t="s">
+      <c r="E4" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="195" t="s">
+      <c r="F4" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="195" t="s">
+      <c r="G4" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="272" t="s">
+      <c r="H4" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="262" t="s">
+      <c r="I4" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="224" t="s">
+      <c r="J4" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="192" t="s">
+      <c r="K4" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="270">
+      <c r="L4" s="277">
         <v>2025</v>
       </c>
-      <c r="M4" s="267" t="s">
+      <c r="M4" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="195" t="s">
+      <c r="N4" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="195" t="s">
+      <c r="O4" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="192" t="s">
+      <c r="P4" s="199" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="225"/>
-      <c r="B5" s="269"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="225"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="271"/>
-      <c r="M5" s="268"/>
-      <c r="N5" s="196"/>
-      <c r="O5" s="196"/>
-      <c r="P5" s="193"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="276"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="270"/>
+      <c r="J5" s="232"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="278"/>
+      <c r="M5" s="275"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="200"/>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="169"/>
@@ -3272,30 +4576,30 @@
       <c r="P8" s="163"/>
     </row>
     <row r="9" spans="1:19" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="215" t="s">
+      <c r="A9" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="261"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="216"/>
-      <c r="L9" s="216"/>
-      <c r="M9" s="216"/>
-      <c r="N9" s="216"/>
-      <c r="O9" s="216"/>
-      <c r="P9" s="217"/>
+      <c r="B9" s="268"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="223"/>
+      <c r="K9" s="223"/>
+      <c r="L9" s="223"/>
+      <c r="M9" s="223"/>
+      <c r="N9" s="223"/>
+      <c r="O9" s="223"/>
+      <c r="P9" s="224"/>
     </row>
     <row r="10" spans="1:19" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="222" t="s">
+      <c r="A10" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="223" t="s">
+      <c r="B10" s="230" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="125" t="s">
@@ -3340,8 +4644,8 @@
       <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:19" s="10" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="222"/>
-      <c r="B11" s="223"/>
+      <c r="A11" s="229"/>
+      <c r="B11" s="230"/>
       <c r="C11" s="164" t="s">
         <v>167</v>
       </c>
@@ -3391,16 +4695,16 @@
       <c r="S11" s="61"/>
     </row>
     <row r="12" spans="1:19" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="203" t="s">
+      <c r="A12" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="204"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="205"/>
-      <c r="H12" s="206"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="213"/>
       <c r="I12" s="66">
         <f t="shared" ref="I12:P12" si="1">SUM(I10:I11)</f>
         <v>41230</v>
@@ -3439,10 +4743,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="218" t="s">
+      <c r="A13" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="220" t="s">
+      <c r="B13" s="227" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="121" t="s">
@@ -3488,8 +4792,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="219"/>
-      <c r="B14" s="221"/>
+      <c r="A14" s="226"/>
+      <c r="B14" s="228"/>
       <c r="C14" s="123" t="s">
         <v>169</v>
       </c>
@@ -3531,8 +4835,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="219"/>
-      <c r="B15" s="221"/>
+      <c r="A15" s="226"/>
+      <c r="B15" s="228"/>
       <c r="C15" s="123" t="s">
         <v>170</v>
       </c>
@@ -3574,8 +4878,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="221"/>
+      <c r="A16" s="226"/>
+      <c r="B16" s="228"/>
       <c r="C16" s="115" t="s">
         <v>131</v>
       </c>
@@ -3621,16 +4925,16 @@
       </c>
     </row>
     <row r="17" spans="1:70" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="208"/>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="209"/>
+      <c r="B17" s="215"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="216"/>
       <c r="I17" s="31">
         <f t="shared" ref="I17:N17" si="2">SUM(I13:I16)</f>
         <v>257000</v>
@@ -3669,10 +4973,10 @@
       </c>
     </row>
     <row r="18" spans="1:70" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="274" t="s">
+      <c r="A18" s="281" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="277" t="s">
+      <c r="B18" s="284" t="s">
         <v>216</v>
       </c>
       <c r="C18" s="117" t="s">
@@ -3720,8 +5024,8 @@
       <c r="R18" s="104"/>
     </row>
     <row r="19" spans="1:70" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="275"/>
-      <c r="B19" s="278"/>
+      <c r="A19" s="282"/>
+      <c r="B19" s="285"/>
       <c r="C19" s="136" t="s">
         <v>223</v>
       </c>
@@ -3763,8 +5067,8 @@
       </c>
     </row>
     <row r="20" spans="1:70" s="15" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="276"/>
-      <c r="B20" s="279"/>
+      <c r="A20" s="283"/>
+      <c r="B20" s="286"/>
       <c r="C20" s="115" t="s">
         <v>225</v>
       </c>
@@ -3806,16 +5110,16 @@
       </c>
     </row>
     <row r="21" spans="1:70" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="210" t="s">
+      <c r="A21" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="211"/>
-      <c r="C21" s="204"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="204"/>
+      <c r="B21" s="218"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="211"/>
       <c r="I21" s="31">
         <f>SUM(I18:I20)</f>
         <v>115500</v>
@@ -3901,16 +5205,16 @@
       </c>
     </row>
     <row r="23" spans="1:70" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="210" t="s">
+      <c r="A23" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="211"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="209"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="216"/>
       <c r="I23" s="31">
         <f>SUM(I22)</f>
         <v>449000</v>
@@ -3949,10 +5253,10 @@
       </c>
     </row>
     <row r="24" spans="1:70" s="10" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="252" t="s">
+      <c r="A24" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="254" t="s">
+      <c r="B24" s="261" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="166" t="s">
@@ -3997,8 +5301,8 @@
       </c>
     </row>
     <row r="25" spans="1:70" s="10" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="253"/>
-      <c r="B25" s="255"/>
+      <c r="A25" s="260"/>
+      <c r="B25" s="262"/>
       <c r="C25" s="127" t="s">
         <v>189</v>
       </c>
@@ -4040,16 +5344,16 @@
       </c>
     </row>
     <row r="26" spans="1:70" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="210" t="s">
+      <c r="A26" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="211"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="226"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="233"/>
       <c r="I26" s="16">
         <f>SUM(I24:I25)</f>
         <v>108000</v>
@@ -4088,16 +5392,16 @@
       </c>
     </row>
     <row r="27" spans="1:70" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="212" t="s">
+      <c r="A27" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="213"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="214"/>
+      <c r="B27" s="220"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="220"/>
+      <c r="E27" s="220"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="220"/>
+      <c r="H27" s="221"/>
       <c r="I27" s="19">
         <f t="shared" ref="I27:P27" si="6">I12+I17+I23+I26+I21</f>
         <v>970730</v>
@@ -4158,24 +5462,24 @@
       </c>
     </row>
     <row r="29" spans="1:70" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="215" t="s">
+      <c r="A29" s="222" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="216"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="216"/>
-      <c r="K29" s="216"/>
-      <c r="L29" s="216"/>
-      <c r="M29" s="216"/>
-      <c r="N29" s="216"/>
-      <c r="O29" s="216"/>
-      <c r="P29" s="217"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="223"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="223"/>
+      <c r="G29" s="223"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="223"/>
+      <c r="K29" s="223"/>
+      <c r="L29" s="223"/>
+      <c r="M29" s="223"/>
+      <c r="N29" s="223"/>
+      <c r="O29" s="223"/>
+      <c r="P29" s="224"/>
       <c r="Q29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -4237,10 +5541,10 @@
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:70" s="60" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="227" t="s">
+      <c r="A31" s="234" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="230" t="s">
         <v>205</v>
       </c>
       <c r="C31" s="115" t="s">
@@ -4337,8 +5641,8 @@
       <c r="BR31" s="15"/>
     </row>
     <row r="32" spans="1:70" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="227"/>
-      <c r="B32" s="223"/>
+      <c r="A32" s="234"/>
+      <c r="B32" s="230"/>
       <c r="C32" s="117" t="s">
         <v>174</v>
       </c>
@@ -4388,8 +5692,8 @@
       </c>
     </row>
     <row r="33" spans="1:18" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="227"/>
-      <c r="B33" s="223"/>
+      <c r="A33" s="234"/>
+      <c r="B33" s="230"/>
       <c r="C33" s="117" t="s">
         <v>175</v>
       </c>
@@ -4440,8 +5744,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="227"/>
-      <c r="B34" s="223"/>
+      <c r="A34" s="234"/>
+      <c r="B34" s="230"/>
       <c r="C34" s="115" t="s">
         <v>41</v>
       </c>
@@ -4482,8 +5786,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="227"/>
-      <c r="B35" s="223"/>
+      <c r="A35" s="234"/>
+      <c r="B35" s="230"/>
       <c r="C35" s="115" t="s">
         <v>40</v>
       </c>
@@ -4531,8 +5835,8 @@
       </c>
     </row>
     <row r="36" spans="1:18" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="227"/>
-      <c r="B36" s="223"/>
+      <c r="A36" s="234"/>
+      <c r="B36" s="230"/>
       <c r="C36" s="115" t="s">
         <v>42</v>
       </c>
@@ -4574,8 +5878,8 @@
       </c>
     </row>
     <row r="37" spans="1:18" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="227"/>
-      <c r="B37" s="223"/>
+      <c r="A37" s="234"/>
+      <c r="B37" s="230"/>
       <c r="C37" s="115" t="s">
         <v>135</v>
       </c>
@@ -4616,16 +5920,16 @@
       </c>
     </row>
     <row r="38" spans="1:18" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="203" t="s">
+      <c r="A38" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="204"/>
-      <c r="C38" s="204"/>
-      <c r="D38" s="204"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="209"/>
+      <c r="B38" s="211"/>
+      <c r="C38" s="211"/>
+      <c r="D38" s="211"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="216"/>
       <c r="I38" s="31">
         <f t="shared" ref="I38:P38" si="8">SUM(I30:I37)</f>
         <v>1588000</v>
@@ -4664,10 +5968,10 @@
       </c>
     </row>
     <row r="39" spans="1:18" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="231" t="s">
+      <c r="A39" s="238" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="194" t="s">
+      <c r="B39" s="201" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="128" t="s">
@@ -4713,8 +6017,8 @@
       </c>
     </row>
     <row r="40" spans="1:18" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="231"/>
-      <c r="B40" s="194"/>
+      <c r="A40" s="238"/>
+      <c r="B40" s="201"/>
       <c r="C40" s="128" t="s">
         <v>46</v>
       </c>
@@ -4759,8 +6063,8 @@
       </c>
     </row>
     <row r="41" spans="1:18" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="231"/>
-      <c r="B41" s="194"/>
+      <c r="A41" s="238"/>
+      <c r="B41" s="201"/>
       <c r="C41" s="132" t="s">
         <v>136</v>
       </c>
@@ -4806,8 +6110,8 @@
       <c r="R41" s="114"/>
     </row>
     <row r="42" spans="1:18" s="14" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="231"/>
-      <c r="B42" s="194"/>
+      <c r="A42" s="238"/>
+      <c r="B42" s="201"/>
       <c r="C42" s="133" t="s">
         <v>47</v>
       </c>
@@ -4849,8 +6153,8 @@
       </c>
     </row>
     <row r="43" spans="1:18" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="231"/>
-      <c r="B43" s="194"/>
+      <c r="A43" s="238"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="128" t="s">
         <v>48</v>
       </c>
@@ -4894,8 +6198,8 @@
       </c>
     </row>
     <row r="44" spans="1:18" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="231"/>
-      <c r="B44" s="194"/>
+      <c r="A44" s="238"/>
+      <c r="B44" s="201"/>
       <c r="C44" s="133" t="s">
         <v>137</v>
       </c>
@@ -4938,8 +6242,8 @@
       </c>
     </row>
     <row r="45" spans="1:18" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="231"/>
-      <c r="B45" s="194"/>
+      <c r="A45" s="238"/>
+      <c r="B45" s="201"/>
       <c r="C45" s="190" t="s">
         <v>240</v>
       </c>
@@ -4982,16 +6286,16 @@
       </c>
     </row>
     <row r="46" spans="1:18" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="203" t="s">
+      <c r="A46" s="210" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="204"/>
-      <c r="C46" s="204"/>
-      <c r="D46" s="204"/>
-      <c r="E46" s="204"/>
-      <c r="F46" s="204"/>
-      <c r="G46" s="204"/>
-      <c r="H46" s="209"/>
+      <c r="B46" s="211"/>
+      <c r="C46" s="211"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="211"/>
+      <c r="F46" s="211"/>
+      <c r="G46" s="211"/>
+      <c r="H46" s="216"/>
       <c r="I46" s="31">
         <f t="shared" ref="I46:P46" si="14">SUM(I39:I45)</f>
         <v>376580</v>
@@ -5030,10 +6334,10 @@
       </c>
     </row>
     <row r="47" spans="1:18" s="15" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="228" t="s">
+      <c r="A47" s="235" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="194" t="s">
+      <c r="B47" s="201" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="138" t="s">
@@ -5078,8 +6382,8 @@
       <c r="R47" s="114"/>
     </row>
     <row r="48" spans="1:18" s="10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="228"/>
-      <c r="B48" s="194"/>
+      <c r="A48" s="235"/>
+      <c r="B48" s="201"/>
       <c r="C48" s="138" t="s">
         <v>54</v>
       </c>
@@ -5122,12 +6426,12 @@
       <c r="R48" s="114"/>
     </row>
     <row r="49" spans="1:18" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="228"/>
-      <c r="B49" s="194"/>
+      <c r="A49" s="235"/>
+      <c r="B49" s="201"/>
       <c r="C49" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="292" t="s">
+      <c r="D49" s="192" t="s">
         <v>178</v>
       </c>
       <c r="E49" s="81" t="s">
@@ -5165,12 +6469,12 @@
       </c>
     </row>
     <row r="50" spans="1:18" s="10" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="228"/>
-      <c r="B50" s="194"/>
+      <c r="A50" s="235"/>
+      <c r="B50" s="201"/>
       <c r="C50" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="292" t="s">
+      <c r="D50" s="192" t="s">
         <v>191</v>
       </c>
       <c r="E50" s="81" t="s">
@@ -5212,12 +6516,12 @@
       <c r="R50" s="103"/>
     </row>
     <row r="51" spans="1:18" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="228"/>
-      <c r="B51" s="194"/>
+      <c r="A51" s="235"/>
+      <c r="B51" s="201"/>
       <c r="C51" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="293" t="s">
+      <c r="D51" s="193" t="s">
         <v>234</v>
       </c>
       <c r="E51" s="81" t="s">
@@ -5257,12 +6561,12 @@
       </c>
     </row>
     <row r="52" spans="1:18" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="228"/>
-      <c r="B52" s="194"/>
+      <c r="A52" s="235"/>
+      <c r="B52" s="201"/>
       <c r="C52" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="293" t="s">
+      <c r="D52" s="193" t="s">
         <v>235</v>
       </c>
       <c r="E52" s="32" t="s">
@@ -5302,16 +6606,16 @@
       </c>
     </row>
     <row r="53" spans="1:18" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="203" t="s">
+      <c r="A53" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="204"/>
-      <c r="C53" s="204"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="204"/>
-      <c r="F53" s="204"/>
-      <c r="G53" s="204"/>
-      <c r="H53" s="209"/>
+      <c r="B53" s="211"/>
+      <c r="C53" s="211"/>
+      <c r="D53" s="211"/>
+      <c r="E53" s="211"/>
+      <c r="F53" s="211"/>
+      <c r="G53" s="211"/>
+      <c r="H53" s="216"/>
       <c r="I53" s="31">
         <f t="shared" ref="I53:P53" si="18">SUM(I47:I52)</f>
         <v>320000</v>
@@ -5350,16 +6654,16 @@
       </c>
     </row>
     <row r="54" spans="1:18" s="10" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="229" t="s">
+      <c r="A54" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="194" t="s">
+      <c r="B54" s="201" t="s">
         <v>166</v>
       </c>
       <c r="C54" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="294" t="s">
+      <c r="D54" s="194" t="s">
         <v>233</v>
       </c>
       <c r="E54" s="28" t="s">
@@ -5397,8 +6701,8 @@
       <c r="R54" s="103"/>
     </row>
     <row r="55" spans="1:18" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="230"/>
-      <c r="B55" s="194"/>
+      <c r="A55" s="237"/>
+      <c r="B55" s="201"/>
       <c r="C55" s="140" t="s">
         <v>140</v>
       </c>
@@ -5439,16 +6743,16 @@
       </c>
     </row>
     <row r="56" spans="1:18" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="207" t="s">
+      <c r="A56" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="208"/>
-      <c r="C56" s="208"/>
-      <c r="D56" s="208"/>
-      <c r="E56" s="208"/>
-      <c r="F56" s="208"/>
-      <c r="G56" s="208"/>
-      <c r="H56" s="226"/>
+      <c r="B56" s="215"/>
+      <c r="C56" s="215"/>
+      <c r="D56" s="215"/>
+      <c r="E56" s="215"/>
+      <c r="F56" s="215"/>
+      <c r="G56" s="215"/>
+      <c r="H56" s="233"/>
       <c r="I56" s="16">
         <f>SUM(I54:I55)</f>
         <v>1077300</v>
@@ -5487,16 +6791,16 @@
       </c>
     </row>
     <row r="57" spans="1:18" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="212" t="s">
+      <c r="A57" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="213"/>
-      <c r="C57" s="213"/>
-      <c r="D57" s="213"/>
-      <c r="E57" s="213"/>
-      <c r="F57" s="213"/>
-      <c r="G57" s="213"/>
-      <c r="H57" s="214"/>
+      <c r="B57" s="220"/>
+      <c r="C57" s="220"/>
+      <c r="D57" s="220"/>
+      <c r="E57" s="220"/>
+      <c r="F57" s="220"/>
+      <c r="G57" s="220"/>
+      <c r="H57" s="221"/>
       <c r="I57" s="33">
         <f t="shared" ref="I57:P57" si="21">SUM(I38+I46+I53+I56)</f>
         <v>3361880</v>
@@ -5557,34 +6861,34 @@
       </c>
     </row>
     <row r="59" spans="1:18" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="215" t="s">
+      <c r="A59" s="222" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="216"/>
-      <c r="C59" s="216"/>
-      <c r="D59" s="216"/>
-      <c r="E59" s="216"/>
-      <c r="F59" s="216"/>
-      <c r="G59" s="216"/>
-      <c r="H59" s="216"/>
-      <c r="I59" s="216"/>
-      <c r="J59" s="216"/>
-      <c r="K59" s="216"/>
-      <c r="L59" s="216"/>
-      <c r="M59" s="216"/>
-      <c r="N59" s="216"/>
-      <c r="O59" s="216"/>
-      <c r="P59" s="217"/>
+      <c r="B59" s="223"/>
+      <c r="C59" s="223"/>
+      <c r="D59" s="223"/>
+      <c r="E59" s="223"/>
+      <c r="F59" s="223"/>
+      <c r="G59" s="223"/>
+      <c r="H59" s="223"/>
+      <c r="I59" s="223"/>
+      <c r="J59" s="223"/>
+      <c r="K59" s="223"/>
+      <c r="L59" s="223"/>
+      <c r="M59" s="223"/>
+      <c r="N59" s="223"/>
+      <c r="O59" s="223"/>
+      <c r="P59" s="224"/>
       <c r="Q59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
     <row r="60" spans="1:18" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="243" t="s">
+      <c r="A60" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="248" t="s">
+      <c r="B60" s="255" t="s">
         <v>208</v>
       </c>
       <c r="C60" s="139" t="s">
@@ -5629,8 +6933,8 @@
       <c r="R60" s="103"/>
     </row>
     <row r="61" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="244"/>
-      <c r="B61" s="249"/>
+      <c r="A61" s="251"/>
+      <c r="B61" s="256"/>
       <c r="C61" s="141" t="s">
         <v>218</v>
       </c>
@@ -5677,8 +6981,8 @@
       <c r="R61" s="103"/>
     </row>
     <row r="62" spans="1:18" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="244"/>
-      <c r="B62" s="250"/>
+      <c r="A62" s="251"/>
+      <c r="B62" s="257"/>
       <c r="C62" s="140" t="s">
         <v>141</v>
       </c>
@@ -5722,16 +7026,16 @@
       </c>
     </row>
     <row r="63" spans="1:18" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="251" t="s">
+      <c r="A63" s="258" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="237"/>
-      <c r="C63" s="237"/>
-      <c r="D63" s="237"/>
-      <c r="E63" s="237"/>
-      <c r="F63" s="237"/>
-      <c r="G63" s="237"/>
-      <c r="H63" s="238"/>
+      <c r="B63" s="244"/>
+      <c r="C63" s="244"/>
+      <c r="D63" s="244"/>
+      <c r="E63" s="244"/>
+      <c r="F63" s="244"/>
+      <c r="G63" s="244"/>
+      <c r="H63" s="245"/>
       <c r="I63" s="31">
         <f>SUM(I60:I62)</f>
         <v>365000</v>
@@ -5770,10 +7074,10 @@
       </c>
     </row>
     <row r="64" spans="1:18" s="36" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="245" t="s">
+      <c r="A64" s="252" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="232" t="s">
+      <c r="B64" s="239" t="s">
         <v>70</v>
       </c>
       <c r="C64" s="177" t="s">
@@ -5818,12 +7122,12 @@
       </c>
     </row>
     <row r="65" spans="1:17" s="36" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="246"/>
-      <c r="B65" s="233"/>
+      <c r="A65" s="253"/>
+      <c r="B65" s="240"/>
       <c r="C65" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="295" t="s">
+      <c r="D65" s="195" t="s">
         <v>209</v>
       </c>
       <c r="E65" s="54" t="s">
@@ -5862,12 +7166,12 @@
       </c>
     </row>
     <row r="66" spans="1:17" s="38" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="246"/>
-      <c r="B66" s="233"/>
+      <c r="A66" s="253"/>
+      <c r="B66" s="240"/>
       <c r="C66" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="295" t="s">
+      <c r="D66" s="195" t="s">
         <v>210</v>
       </c>
       <c r="E66" s="52" t="s">
@@ -5906,8 +7210,8 @@
       </c>
     </row>
     <row r="67" spans="1:17" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="247"/>
-      <c r="B67" s="234"/>
+      <c r="A67" s="254"/>
+      <c r="B67" s="241"/>
       <c r="C67" s="142" t="s">
         <v>76</v>
       </c>
@@ -5948,16 +7252,16 @@
       </c>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="235" t="s">
+      <c r="A68" s="242" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="236"/>
-      <c r="C68" s="237"/>
-      <c r="D68" s="237"/>
-      <c r="E68" s="237"/>
-      <c r="F68" s="237"/>
-      <c r="G68" s="237"/>
-      <c r="H68" s="238"/>
+      <c r="B68" s="243"/>
+      <c r="C68" s="244"/>
+      <c r="D68" s="244"/>
+      <c r="E68" s="244"/>
+      <c r="F68" s="244"/>
+      <c r="G68" s="244"/>
+      <c r="H68" s="245"/>
       <c r="I68" s="31">
         <f>SUM(I64:I67)</f>
         <v>1055000</v>
@@ -6043,16 +7347,16 @@
       </c>
     </row>
     <row r="70" spans="1:17" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="235" t="s">
+      <c r="A70" s="242" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="236"/>
-      <c r="C70" s="237"/>
-      <c r="D70" s="237"/>
-      <c r="E70" s="237"/>
-      <c r="F70" s="237"/>
-      <c r="G70" s="237"/>
-      <c r="H70" s="238"/>
+      <c r="B70" s="243"/>
+      <c r="C70" s="244"/>
+      <c r="D70" s="244"/>
+      <c r="E70" s="244"/>
+      <c r="F70" s="244"/>
+      <c r="G70" s="244"/>
+      <c r="H70" s="245"/>
       <c r="I70" s="31">
         <f>SUM(I69:I69)</f>
         <v>300000</v>
@@ -6100,7 +7404,7 @@
       <c r="C71" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="298" t="s">
+      <c r="D71" s="198" t="s">
         <v>151</v>
       </c>
       <c r="E71" s="52" t="s">
@@ -6140,16 +7444,16 @@
       </c>
     </row>
     <row r="72" spans="1:17" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="239" t="s">
+      <c r="A72" s="246" t="s">
         <v>152</v>
       </c>
-      <c r="B72" s="240"/>
-      <c r="C72" s="241"/>
-      <c r="D72" s="241"/>
-      <c r="E72" s="241"/>
-      <c r="F72" s="241"/>
-      <c r="G72" s="241"/>
-      <c r="H72" s="242"/>
+      <c r="B72" s="247"/>
+      <c r="C72" s="248"/>
+      <c r="D72" s="248"/>
+      <c r="E72" s="248"/>
+      <c r="F72" s="248"/>
+      <c r="G72" s="248"/>
+      <c r="H72" s="249"/>
       <c r="I72" s="16">
         <f t="shared" ref="I72:P72" si="26">SUM(I71:I71)</f>
         <v>1279995</v>
@@ -6188,16 +7492,16 @@
       </c>
     </row>
     <row r="73" spans="1:17" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="212" t="s">
+      <c r="A73" s="219" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="213"/>
-      <c r="C73" s="213"/>
-      <c r="D73" s="213"/>
-      <c r="E73" s="213"/>
-      <c r="F73" s="213"/>
-      <c r="G73" s="213"/>
-      <c r="H73" s="214"/>
+      <c r="B73" s="220"/>
+      <c r="C73" s="220"/>
+      <c r="D73" s="220"/>
+      <c r="E73" s="220"/>
+      <c r="F73" s="220"/>
+      <c r="G73" s="220"/>
+      <c r="H73" s="221"/>
       <c r="I73" s="33">
         <f>I68+I63+I70+I72</f>
         <v>2999995</v>
@@ -6254,24 +7558,24 @@
       <c r="Q74" s="9"/>
     </row>
     <row r="75" spans="1:17" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="215" t="s">
+      <c r="A75" s="222" t="s">
         <v>83</v>
       </c>
-      <c r="B75" s="216"/>
-      <c r="C75" s="216"/>
-      <c r="D75" s="216"/>
-      <c r="E75" s="216"/>
-      <c r="F75" s="216"/>
-      <c r="G75" s="216"/>
-      <c r="H75" s="216"/>
-      <c r="I75" s="216"/>
-      <c r="J75" s="216"/>
-      <c r="K75" s="216"/>
-      <c r="L75" s="216"/>
-      <c r="M75" s="216"/>
-      <c r="N75" s="216"/>
-      <c r="O75" s="216"/>
-      <c r="P75" s="217"/>
+      <c r="B75" s="223"/>
+      <c r="C75" s="223"/>
+      <c r="D75" s="223"/>
+      <c r="E75" s="223"/>
+      <c r="F75" s="223"/>
+      <c r="G75" s="223"/>
+      <c r="H75" s="223"/>
+      <c r="I75" s="223"/>
+      <c r="J75" s="223"/>
+      <c r="K75" s="223"/>
+      <c r="L75" s="223"/>
+      <c r="M75" s="223"/>
+      <c r="N75" s="223"/>
+      <c r="O75" s="223"/>
+      <c r="P75" s="224"/>
       <c r="Q75" s="9" t="str">
         <f t="shared" ref="Q75:Q94" si="28">IF(L75=M75+N75+O75+P75,"OK",M75-N75-O75-P75)</f>
         <v>OK</v>
@@ -6287,7 +7591,7 @@
       <c r="C76" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="D76" s="296" t="s">
+      <c r="D76" s="196" t="s">
         <v>87</v>
       </c>
       <c r="E76" s="59" t="s">
@@ -6328,16 +7632,16 @@
       </c>
     </row>
     <row r="77" spans="1:17" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="207" t="s">
+      <c r="A77" s="214" t="s">
         <v>90</v>
       </c>
-      <c r="B77" s="208"/>
-      <c r="C77" s="208"/>
-      <c r="D77" s="208"/>
-      <c r="E77" s="208"/>
-      <c r="F77" s="208"/>
-      <c r="G77" s="208"/>
-      <c r="H77" s="226"/>
+      <c r="B77" s="215"/>
+      <c r="C77" s="215"/>
+      <c r="D77" s="215"/>
+      <c r="E77" s="215"/>
+      <c r="F77" s="215"/>
+      <c r="G77" s="215"/>
+      <c r="H77" s="233"/>
       <c r="I77" s="16">
         <f>SUM(I76:I76)</f>
         <v>1750000</v>
@@ -6376,16 +7680,16 @@
       </c>
     </row>
     <row r="78" spans="1:17" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="212" t="s">
+      <c r="A78" s="219" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="213"/>
-      <c r="C78" s="213"/>
-      <c r="D78" s="213"/>
-      <c r="E78" s="213"/>
-      <c r="F78" s="213"/>
-      <c r="G78" s="213"/>
-      <c r="H78" s="214"/>
+      <c r="B78" s="220"/>
+      <c r="C78" s="220"/>
+      <c r="D78" s="220"/>
+      <c r="E78" s="220"/>
+      <c r="F78" s="220"/>
+      <c r="G78" s="220"/>
+      <c r="H78" s="221"/>
       <c r="I78" s="33">
         <f>SUM(I76:I76)</f>
         <v>1750000</v>
@@ -6446,24 +7750,24 @@
       </c>
     </row>
     <row r="80" spans="1:17" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="215" t="s">
+      <c r="A80" s="222" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="216"/>
-      <c r="C80" s="216"/>
-      <c r="D80" s="216"/>
-      <c r="E80" s="216"/>
-      <c r="F80" s="216"/>
-      <c r="G80" s="216"/>
-      <c r="H80" s="216"/>
-      <c r="I80" s="216"/>
-      <c r="J80" s="216"/>
-      <c r="K80" s="216"/>
-      <c r="L80" s="216"/>
-      <c r="M80" s="216"/>
-      <c r="N80" s="216"/>
-      <c r="O80" s="216"/>
-      <c r="P80" s="217"/>
+      <c r="B80" s="223"/>
+      <c r="C80" s="223"/>
+      <c r="D80" s="223"/>
+      <c r="E80" s="223"/>
+      <c r="F80" s="223"/>
+      <c r="G80" s="223"/>
+      <c r="H80" s="223"/>
+      <c r="I80" s="223"/>
+      <c r="J80" s="223"/>
+      <c r="K80" s="223"/>
+      <c r="L80" s="223"/>
+      <c r="M80" s="223"/>
+      <c r="N80" s="223"/>
+      <c r="O80" s="223"/>
+      <c r="P80" s="224"/>
       <c r="Q80" s="9" t="str">
         <f t="shared" si="28"/>
         <v>OK</v>
@@ -6479,7 +7783,7 @@
       <c r="C81" s="182" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="297" t="s">
+      <c r="D81" s="197" t="s">
         <v>96</v>
       </c>
       <c r="E81" s="44"/>
@@ -6520,16 +7824,16 @@
       </c>
     </row>
     <row r="82" spans="1:17" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="288" t="s">
+      <c r="A82" s="295" t="s">
         <v>97</v>
       </c>
-      <c r="B82" s="289"/>
-      <c r="C82" s="290"/>
-      <c r="D82" s="290"/>
-      <c r="E82" s="290"/>
-      <c r="F82" s="290"/>
-      <c r="G82" s="290"/>
-      <c r="H82" s="291"/>
+      <c r="B82" s="296"/>
+      <c r="C82" s="297"/>
+      <c r="D82" s="297"/>
+      <c r="E82" s="297"/>
+      <c r="F82" s="297"/>
+      <c r="G82" s="297"/>
+      <c r="H82" s="298"/>
       <c r="I82" s="31">
         <f t="shared" ref="I82:P82" si="30">SUM(I81:I81)</f>
         <v>763829</v>
@@ -6568,10 +7872,10 @@
       </c>
     </row>
     <row r="83" spans="1:17" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="285" t="s">
+      <c r="A83" s="292" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="232" t="s">
+      <c r="B83" s="239" t="s">
         <v>99</v>
       </c>
       <c r="C83" s="142" t="s">
@@ -6619,8 +7923,8 @@
       </c>
     </row>
     <row r="84" spans="1:17" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="286"/>
-      <c r="B84" s="233"/>
+      <c r="A84" s="293"/>
+      <c r="B84" s="240"/>
       <c r="C84" s="142" t="s">
         <v>103</v>
       </c>
@@ -6671,8 +7975,8 @@
       </c>
     </row>
     <row r="85" spans="1:17" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="286"/>
-      <c r="B85" s="233"/>
+      <c r="A85" s="293"/>
+      <c r="B85" s="240"/>
       <c r="C85" s="142" t="s">
         <v>105</v>
       </c>
@@ -6723,8 +8027,8 @@
       </c>
     </row>
     <row r="86" spans="1:17" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="286"/>
-      <c r="B86" s="233"/>
+      <c r="A86" s="293"/>
+      <c r="B86" s="240"/>
       <c r="C86" s="142" t="s">
         <v>107</v>
       </c>
@@ -6773,8 +8077,8 @@
       </c>
     </row>
     <row r="87" spans="1:17" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="287"/>
-      <c r="B87" s="234"/>
+      <c r="A87" s="294"/>
+      <c r="B87" s="241"/>
       <c r="C87" s="142" t="s">
         <v>109</v>
       </c>
@@ -6817,16 +8121,16 @@
       </c>
     </row>
     <row r="88" spans="1:17" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="284" t="s">
+      <c r="A88" s="291" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="205"/>
-      <c r="C88" s="204"/>
-      <c r="D88" s="204"/>
-      <c r="E88" s="204"/>
-      <c r="F88" s="204"/>
-      <c r="G88" s="204"/>
-      <c r="H88" s="209"/>
+      <c r="B88" s="212"/>
+      <c r="C88" s="211"/>
+      <c r="D88" s="211"/>
+      <c r="E88" s="211"/>
+      <c r="F88" s="211"/>
+      <c r="G88" s="211"/>
+      <c r="H88" s="216"/>
       <c r="I88" s="31">
         <f>SUM(I83:I87)</f>
         <v>161628</v>
@@ -6865,10 +8169,10 @@
       </c>
     </row>
     <row r="89" spans="1:17" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="280" t="s">
+      <c r="A89" s="287" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="223" t="s">
+      <c r="B89" s="230" t="s">
         <v>113</v>
       </c>
       <c r="C89" s="139" t="s">
@@ -6920,8 +8224,8 @@
       </c>
     </row>
     <row r="90" spans="1:17" s="10" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="280"/>
-      <c r="B90" s="223"/>
+      <c r="A90" s="287"/>
+      <c r="B90" s="230"/>
       <c r="C90" s="139" t="s">
         <v>116</v>
       </c>
@@ -6971,8 +8275,8 @@
       </c>
     </row>
     <row r="91" spans="1:17" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="280"/>
-      <c r="B91" s="223"/>
+      <c r="A91" s="287"/>
+      <c r="B91" s="230"/>
       <c r="C91" s="139" t="s">
         <v>119</v>
       </c>
@@ -7016,8 +8320,8 @@
       </c>
     </row>
     <row r="92" spans="1:17" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="280"/>
-      <c r="B92" s="223"/>
+      <c r="A92" s="287"/>
+      <c r="B92" s="230"/>
       <c r="C92" s="139" t="s">
         <v>129</v>
       </c>
@@ -7066,16 +8370,16 @@
       </c>
     </row>
     <row r="93" spans="1:17" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="207" t="s">
+      <c r="A93" s="214" t="s">
         <v>120</v>
       </c>
-      <c r="B93" s="208"/>
-      <c r="C93" s="208"/>
-      <c r="D93" s="208"/>
-      <c r="E93" s="208"/>
-      <c r="F93" s="208"/>
-      <c r="G93" s="208"/>
-      <c r="H93" s="226"/>
+      <c r="B93" s="215"/>
+      <c r="C93" s="215"/>
+      <c r="D93" s="215"/>
+      <c r="E93" s="215"/>
+      <c r="F93" s="215"/>
+      <c r="G93" s="215"/>
+      <c r="H93" s="233"/>
       <c r="I93" s="67">
         <f>SUM(I89:I92)</f>
         <v>144216</v>
@@ -7114,16 +8418,16 @@
       </c>
     </row>
     <row r="94" spans="1:17" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="212" t="s">
+      <c r="A94" s="219" t="s">
         <v>121</v>
       </c>
-      <c r="B94" s="213"/>
-      <c r="C94" s="213"/>
-      <c r="D94" s="213"/>
-      <c r="E94" s="213"/>
-      <c r="F94" s="213"/>
-      <c r="G94" s="213"/>
-      <c r="H94" s="214"/>
+      <c r="B94" s="220"/>
+      <c r="C94" s="220"/>
+      <c r="D94" s="220"/>
+      <c r="E94" s="220"/>
+      <c r="F94" s="220"/>
+      <c r="G94" s="220"/>
+      <c r="H94" s="221"/>
       <c r="I94" s="33">
         <f t="shared" ref="I94:P94" si="33">+I93+I88+I82</f>
         <v>1069673</v>
@@ -7181,16 +8485,16 @@
       <c r="Q95" s="9"/>
     </row>
     <row r="96" spans="1:17" s="4" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="281" t="s">
+      <c r="A96" s="288" t="s">
         <v>122</v>
       </c>
-      <c r="B96" s="282"/>
-      <c r="C96" s="282"/>
-      <c r="D96" s="282"/>
-      <c r="E96" s="282"/>
-      <c r="F96" s="282"/>
-      <c r="G96" s="282"/>
-      <c r="H96" s="283"/>
+      <c r="B96" s="289"/>
+      <c r="C96" s="289"/>
+      <c r="D96" s="289"/>
+      <c r="E96" s="289"/>
+      <c r="F96" s="289"/>
+      <c r="G96" s="289"/>
+      <c r="H96" s="290"/>
       <c r="I96" s="45">
         <f t="shared" ref="I96:P96" si="34">I27+I57+I73+I78+I94</f>
         <v>10152278</v>
@@ -7465,2222 +8769,3526 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17FFD54-FA31-4505-83F8-607C1681873F}">
-  <dimension ref="A3:AS31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F105846-F24F-45CE-A5D4-B689C53C48BF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A48" activePane="bottomLeft" state="frozenSplit"/>
+      <selection activeCell="A12" sqref="A12:P12"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="302" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" style="302" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="302" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="302" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="302" customWidth="1"/>
-    <col min="6" max="6" width="28" style="302" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="302" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="302" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="302" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="302" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="302" customWidth="1"/>
-    <col min="12" max="12" width="29.21875" style="302" customWidth="1"/>
-    <col min="13" max="13" width="13" style="302" customWidth="1"/>
-    <col min="14" max="15" width="17" style="302" customWidth="1"/>
-    <col min="16" max="17" width="15.6640625" style="302" customWidth="1"/>
-    <col min="18" max="19" width="13.44140625" style="302" customWidth="1"/>
-    <col min="20" max="21" width="14.44140625" style="302" customWidth="1"/>
-    <col min="22" max="25" width="16.33203125" style="302" customWidth="1"/>
-    <col min="26" max="27" width="11.5546875" style="302"/>
-    <col min="28" max="28" width="25.77734375" style="302" customWidth="1"/>
-    <col min="29" max="29" width="12.21875" style="302" customWidth="1"/>
-    <col min="30" max="30" width="23.33203125" style="302" customWidth="1"/>
-    <col min="31" max="31" width="11.33203125" style="302" customWidth="1"/>
-    <col min="32" max="32" width="23.44140625" style="302" customWidth="1"/>
-    <col min="33" max="33" width="11.21875" style="302" customWidth="1"/>
-    <col min="34" max="34" width="23.44140625" style="302" customWidth="1"/>
-    <col min="35" max="35" width="9.77734375" style="302" customWidth="1"/>
-    <col min="36" max="36" width="27.88671875" style="302" customWidth="1"/>
-    <col min="37" max="37" width="11.5546875" style="302" customWidth="1"/>
-    <col min="38" max="38" width="23.33203125" style="302" customWidth="1"/>
-    <col min="39" max="39" width="11" style="302" customWidth="1"/>
-    <col min="40" max="40" width="27.33203125" style="302" customWidth="1"/>
-    <col min="41" max="41" width="12.33203125" style="302" customWidth="1"/>
-    <col min="42" max="16384" width="11.5546875" style="302"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.88671875" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:45" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="299" t="s">
+    <row r="1" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="299" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="300" t="s">
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
+      <c r="J2" s="299"/>
+      <c r="K2" s="299"/>
+      <c r="L2" s="299"/>
+      <c r="M2" s="299"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="300"/>
+    </row>
+    <row r="3" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" s="303" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="301"/>
+      <c r="B4" s="302" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="J4" s="304"/>
+    </row>
+    <row r="5" spans="1:20" s="303" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="301"/>
+      <c r="B5" s="305" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="305"/>
+      <c r="D5" s="305"/>
+    </row>
+    <row r="6" spans="1:20" s="303" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="301"/>
+      <c r="B6" s="306" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="306"/>
+      <c r="D6" s="306"/>
+      <c r="T6" s="304"/>
+    </row>
+    <row r="7" spans="1:20" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="46"/>
+      <c r="B7" s="307"/>
+      <c r="C7" s="307"/>
+      <c r="D7" s="307"/>
+      <c r="T7" s="51"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="207"/>
+      <c r="C8" s="206" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="206" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="308"/>
+      <c r="L8" s="309" t="s">
+        <v>249</v>
+      </c>
+      <c r="M8" s="272" t="s">
+        <v>250</v>
+      </c>
+      <c r="N8" s="272"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="273"/>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="206" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="207" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="206" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="209" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="310" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="310" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="209" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="267" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="311" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="206" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="312" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="313">
+        <v>2025</v>
+      </c>
+      <c r="M9" s="313" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="313" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="313" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="313" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="39" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="314"/>
+      <c r="B10" s="315"/>
+      <c r="C10" s="314"/>
+      <c r="D10" s="316"/>
+      <c r="E10" s="317"/>
+      <c r="F10" s="317"/>
+      <c r="G10" s="316"/>
+      <c r="H10" s="318"/>
+      <c r="I10" s="319"/>
+      <c r="J10" s="314"/>
+      <c r="K10" s="320"/>
+      <c r="L10" s="321"/>
+      <c r="M10" s="321"/>
+      <c r="N10" s="321"/>
+      <c r="O10" s="321"/>
+      <c r="P10" s="321"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="11.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="322" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="323"/>
+      <c r="C12" s="323"/>
+      <c r="D12" s="323"/>
+      <c r="E12" s="323"/>
+      <c r="F12" s="323"/>
+      <c r="G12" s="323"/>
+      <c r="H12" s="323"/>
+      <c r="I12" s="323"/>
+      <c r="J12" s="323"/>
+      <c r="K12" s="323"/>
+      <c r="L12" s="323"/>
+      <c r="M12" s="323"/>
+      <c r="N12" s="323"/>
+      <c r="O12" s="323"/>
+      <c r="P12" s="324"/>
+      <c r="Q12" s="325"/>
+    </row>
+    <row r="13" spans="1:20" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="326" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="327"/>
+      <c r="C13" s="327"/>
+      <c r="D13" s="327"/>
+      <c r="E13" s="327"/>
+      <c r="F13" s="327"/>
+      <c r="G13" s="327"/>
+      <c r="H13" s="327"/>
+      <c r="I13" s="327"/>
+      <c r="J13" s="327"/>
+      <c r="K13" s="327"/>
+      <c r="L13" s="327"/>
+      <c r="M13" s="327"/>
+      <c r="N13" s="327"/>
+      <c r="O13" s="327"/>
+      <c r="P13" s="328"/>
+      <c r="Q13" s="325"/>
+    </row>
+    <row r="14" spans="1:20" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="329" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="330" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="331" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="332" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="333" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="333" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="334">
+        <v>1</v>
+      </c>
+      <c r="H14" s="335">
+        <v>19800</v>
+      </c>
+      <c r="I14" s="335">
+        <f>H14*G14</f>
+        <v>19800</v>
+      </c>
+      <c r="J14" s="335"/>
+      <c r="K14" s="336">
+        <f>I14</f>
+        <v>19800</v>
+      </c>
+      <c r="L14" s="337">
+        <v>19800</v>
+      </c>
+      <c r="M14" s="338"/>
+      <c r="N14" s="335">
+        <v>19800</v>
+      </c>
+      <c r="O14" s="339"/>
+      <c r="P14" s="340"/>
+      <c r="Q14" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="329"/>
+      <c r="B15" s="330"/>
+      <c r="C15" s="331" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="341" t="s">
+        <v>261</v>
+      </c>
+      <c r="E15" s="333" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" s="333" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="334">
+        <v>1</v>
+      </c>
+      <c r="H15" s="335">
+        <v>15000</v>
+      </c>
+      <c r="I15" s="335">
+        <f>H15*G15</f>
+        <v>15000</v>
+      </c>
+      <c r="J15" s="335"/>
+      <c r="K15" s="336">
+        <f>I15</f>
+        <v>15000</v>
+      </c>
+      <c r="L15" s="337">
+        <f>M15+N15+O15+P15</f>
+        <v>15000</v>
+      </c>
+      <c r="M15" s="338"/>
+      <c r="N15" s="335"/>
+      <c r="O15" s="339">
+        <v>15000</v>
+      </c>
+      <c r="P15" s="340"/>
+      <c r="Q15" s="9" t="str">
+        <f>IF(L15=M15+N15+O15+P15,"OK",M15-N15-O15-P15)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="342"/>
+      <c r="B16" s="343"/>
+      <c r="C16" s="331" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="344" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" s="345" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="345" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="346">
+        <v>1</v>
+      </c>
+      <c r="H16" s="347">
+        <v>40000</v>
+      </c>
+      <c r="I16" s="335">
+        <f t="shared" ref="I16:I19" si="0">H16*G16</f>
+        <v>40000</v>
+      </c>
+      <c r="J16" s="347"/>
+      <c r="K16" s="336">
+        <f t="shared" ref="K16:K19" si="1">I16</f>
+        <v>40000</v>
+      </c>
+      <c r="L16" s="348">
+        <f>M16+N16+O16+P16</f>
+        <v>40000</v>
+      </c>
+      <c r="M16" s="349"/>
+      <c r="N16" s="347">
+        <v>16000</v>
+      </c>
+      <c r="O16" s="131">
+        <v>12000</v>
+      </c>
+      <c r="P16" s="350">
+        <v>12000</v>
+      </c>
+      <c r="Q16" s="9" t="str">
+        <f t="shared" ref="Q16:Q79" si="2">IF(L16=M16+N16+O16+P16,"OK",M16-N16-O16-P16)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="10" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="342"/>
+      <c r="B17" s="343"/>
+      <c r="C17" s="331" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="351" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="345" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="345" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="346">
+        <v>1</v>
+      </c>
+      <c r="H17" s="347">
+        <v>20000</v>
+      </c>
+      <c r="I17" s="335">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="J17" s="347"/>
+      <c r="K17" s="336">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="L17" s="348">
+        <f t="shared" ref="L17:L19" si="3">M17+N17+O17+P17</f>
+        <v>20000</v>
+      </c>
+      <c r="M17" s="349"/>
+      <c r="N17" s="347"/>
+      <c r="O17" s="352"/>
+      <c r="P17" s="350">
+        <v>20000</v>
+      </c>
+      <c r="Q17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="10" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="342"/>
+      <c r="B18" s="343"/>
+      <c r="C18" s="331" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="353" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="345" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="345" t="s">
+        <v>259</v>
+      </c>
+      <c r="G18" s="346">
+        <v>1</v>
+      </c>
+      <c r="H18" s="347">
+        <v>10000</v>
+      </c>
+      <c r="I18" s="335">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="J18" s="347">
+        <v>0</v>
+      </c>
+      <c r="K18" s="336">
+        <v>15500</v>
+      </c>
+      <c r="L18" s="348">
+        <v>10000</v>
+      </c>
+      <c r="M18" s="349"/>
+      <c r="N18" s="347"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="350">
+        <v>10000</v>
+      </c>
+      <c r="Q18" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="354"/>
+      <c r="B19" s="355"/>
+      <c r="C19" s="331" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="356" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="345" t="s">
+        <v>268</v>
+      </c>
+      <c r="F19" s="357" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="358">
+        <v>1</v>
+      </c>
+      <c r="H19" s="359">
+        <v>35000</v>
+      </c>
+      <c r="I19" s="335">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="J19" s="359">
+        <v>0</v>
+      </c>
+      <c r="K19" s="336">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="L19" s="348">
+        <f t="shared" si="3"/>
+        <v>35000</v>
+      </c>
+      <c r="M19" s="360"/>
+      <c r="N19" s="359"/>
+      <c r="O19" s="361">
+        <v>15000</v>
+      </c>
+      <c r="P19" s="362">
+        <v>20000</v>
+      </c>
+      <c r="Q19" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="363" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="364"/>
+      <c r="C20" s="364"/>
+      <c r="D20" s="364"/>
+      <c r="E20" s="365"/>
+      <c r="F20" s="365"/>
+      <c r="G20" s="365"/>
+      <c r="H20" s="366"/>
+      <c r="I20" s="367">
+        <f>SUM(I14:I19)</f>
+        <v>139800</v>
+      </c>
+      <c r="J20" s="368">
+        <f t="shared" ref="J20:P20" si="4">SUM(J14:J19)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="368">
+        <f>SUM(K14:K19)</f>
+        <v>145300</v>
+      </c>
+      <c r="L20" s="367">
+        <f t="shared" si="4"/>
+        <v>139800</v>
+      </c>
+      <c r="M20" s="369">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="368">
+        <f t="shared" si="4"/>
+        <v>35800</v>
+      </c>
+      <c r="O20" s="368">
+        <f t="shared" si="4"/>
+        <v>42000</v>
+      </c>
+      <c r="P20" s="367">
+        <f t="shared" si="4"/>
+        <v>62000</v>
+      </c>
+      <c r="Q20" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+    </row>
+    <row r="21" spans="1:19" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="326" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" s="327"/>
+      <c r="C21" s="327"/>
+      <c r="D21" s="327"/>
+      <c r="E21" s="327"/>
+      <c r="F21" s="327"/>
+      <c r="G21" s="327"/>
+      <c r="H21" s="327"/>
+      <c r="I21" s="327"/>
+      <c r="J21" s="327"/>
+      <c r="K21" s="327"/>
+      <c r="L21" s="327"/>
+      <c r="M21" s="327"/>
+      <c r="N21" s="327"/>
+      <c r="O21" s="327"/>
+      <c r="P21" s="328"/>
+      <c r="Q21" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="370" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="371" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="331" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="372" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="300" t="s">
+      <c r="E22" s="373" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="373" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="374">
+        <v>1</v>
+      </c>
+      <c r="H22" s="375">
+        <v>40000</v>
+      </c>
+      <c r="I22" s="375">
+        <f>H22*G22</f>
+        <v>40000</v>
+      </c>
+      <c r="J22" s="375"/>
+      <c r="K22" s="376">
+        <f>I22</f>
+        <v>40000</v>
+      </c>
+      <c r="L22" s="377">
+        <f>K22</f>
+        <v>40000</v>
+      </c>
+      <c r="M22" s="378"/>
+      <c r="N22" s="375"/>
+      <c r="O22" s="375">
+        <v>20000</v>
+      </c>
+      <c r="P22" s="379">
+        <v>20000</v>
+      </c>
+      <c r="Q22" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="370"/>
+      <c r="B23" s="371"/>
+      <c r="C23" s="380" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="381" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" s="373" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" s="373" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="374">
+        <v>1</v>
+      </c>
+      <c r="H23" s="375">
+        <v>25000</v>
+      </c>
+      <c r="I23" s="375">
+        <f t="shared" ref="I23:I24" si="5">H23*G23</f>
+        <v>25000</v>
+      </c>
+      <c r="J23" s="375"/>
+      <c r="K23" s="376">
+        <f t="shared" ref="K23:K24" si="6">I23</f>
+        <v>25000</v>
+      </c>
+      <c r="L23" s="377">
+        <f t="shared" ref="L23:L24" si="7">M23+N23+O23+P23</f>
+        <v>25000</v>
+      </c>
+      <c r="M23" s="378"/>
+      <c r="N23" s="375"/>
+      <c r="O23" s="375">
+        <v>12500</v>
+      </c>
+      <c r="P23" s="382">
+        <v>12500</v>
+      </c>
+      <c r="Q23" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="10" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="370"/>
+      <c r="B24" s="371"/>
+      <c r="C24" s="383" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="384" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="385" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="373" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="386">
+        <v>1</v>
+      </c>
+      <c r="H24" s="387">
+        <v>35000</v>
+      </c>
+      <c r="I24" s="387">
+        <f t="shared" si="5"/>
+        <v>35000</v>
+      </c>
+      <c r="J24" s="387"/>
+      <c r="K24" s="388">
+        <f t="shared" si="6"/>
+        <v>35000</v>
+      </c>
+      <c r="L24" s="377">
+        <f t="shared" si="7"/>
+        <v>35000</v>
+      </c>
+      <c r="M24" s="389"/>
+      <c r="N24" s="390"/>
+      <c r="O24" s="390">
+        <v>21000</v>
+      </c>
+      <c r="P24" s="391">
+        <v>14000</v>
+      </c>
+      <c r="Q24" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="10" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="392" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="300" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="300" t="s">
+      <c r="B25" s="393"/>
+      <c r="C25" s="393"/>
+      <c r="D25" s="394"/>
+      <c r="E25" s="395"/>
+      <c r="F25" s="395"/>
+      <c r="G25" s="396"/>
+      <c r="H25" s="397">
+        <f t="shared" ref="H25:P25" si="8">SUM(H22:H24)</f>
+        <v>100000</v>
+      </c>
+      <c r="I25" s="397">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="J25" s="397">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="397">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="L25" s="397">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="M25" s="398">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="398">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="398">
+        <f t="shared" si="8"/>
+        <v>53500</v>
+      </c>
+      <c r="P25" s="399">
+        <f t="shared" si="8"/>
+        <v>46500</v>
+      </c>
+      <c r="Q25" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="10" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="370" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="371" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="331" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" s="372" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="373" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="373" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="374">
+        <v>1</v>
+      </c>
+      <c r="H26" s="375">
+        <v>250000</v>
+      </c>
+      <c r="I26" s="375">
+        <f>H26*G26</f>
+        <v>250000</v>
+      </c>
+      <c r="J26" s="400"/>
+      <c r="K26" s="376">
+        <f>I26</f>
+        <v>250000</v>
+      </c>
+      <c r="L26" s="377">
+        <v>250000</v>
+      </c>
+      <c r="M26" s="401"/>
+      <c r="N26" s="402"/>
+      <c r="O26" s="402">
+        <v>150000</v>
+      </c>
+      <c r="P26" s="403">
+        <v>100000</v>
+      </c>
+      <c r="Q26" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="10" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="370"/>
+      <c r="B27" s="371"/>
+      <c r="C27" s="331" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="404" t="s">
+        <v>287</v>
+      </c>
+      <c r="E27" s="373" t="s">
+        <v>285</v>
+      </c>
+      <c r="F27" s="373" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="374">
+        <v>2</v>
+      </c>
+      <c r="H27" s="375">
+        <v>6000</v>
+      </c>
+      <c r="I27" s="375">
+        <f t="shared" ref="I27:I37" si="9">H27*G27</f>
+        <v>12000</v>
+      </c>
+      <c r="J27" s="400"/>
+      <c r="K27" s="376">
+        <f t="shared" ref="K27:K37" si="10">I27</f>
+        <v>12000</v>
+      </c>
+      <c r="L27" s="377">
+        <v>12000</v>
+      </c>
+      <c r="M27" s="405"/>
+      <c r="N27" s="406"/>
+      <c r="O27" s="406"/>
+      <c r="P27" s="382">
+        <v>12000</v>
+      </c>
+      <c r="Q27" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="370"/>
+      <c r="B28" s="371"/>
+      <c r="C28" s="331" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="407" t="s">
+        <v>289</v>
+      </c>
+      <c r="E28" s="373" t="s">
+        <v>285</v>
+      </c>
+      <c r="F28" s="373" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="374">
+        <v>1</v>
+      </c>
+      <c r="H28" s="375">
+        <v>65000</v>
+      </c>
+      <c r="I28" s="375">
+        <f t="shared" si="9"/>
+        <v>65000</v>
+      </c>
+      <c r="J28" s="400"/>
+      <c r="K28" s="376">
+        <f t="shared" si="10"/>
+        <v>65000</v>
+      </c>
+      <c r="L28" s="377">
+        <v>65000</v>
+      </c>
+      <c r="M28" s="405"/>
+      <c r="N28" s="406">
+        <v>13000</v>
+      </c>
+      <c r="O28" s="406">
+        <v>26000</v>
+      </c>
+      <c r="P28" s="382">
+        <v>26000</v>
+      </c>
+      <c r="Q28" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="10" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="370"/>
+      <c r="B29" s="371"/>
+      <c r="C29" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="D29" s="372" t="s">
+        <v>291</v>
+      </c>
+      <c r="E29" s="373" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" s="373" t="s">
+        <v>293</v>
+      </c>
+      <c r="G29" s="374">
+        <v>1</v>
+      </c>
+      <c r="H29" s="375">
+        <v>35000</v>
+      </c>
+      <c r="I29" s="375">
+        <f t="shared" si="9"/>
+        <v>35000</v>
+      </c>
+      <c r="J29" s="400"/>
+      <c r="K29" s="376">
+        <f t="shared" si="10"/>
+        <v>35000</v>
+      </c>
+      <c r="L29" s="377">
+        <v>35000</v>
+      </c>
+      <c r="M29" s="405"/>
+      <c r="N29" s="406">
+        <v>10000</v>
+      </c>
+      <c r="O29" s="406">
+        <v>25000</v>
+      </c>
+      <c r="P29" s="382"/>
+      <c r="Q29" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="10" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="370"/>
+      <c r="B30" s="371"/>
+      <c r="C30" s="331" t="s">
+        <v>294</v>
+      </c>
+      <c r="D30" s="404" t="s">
+        <v>295</v>
+      </c>
+      <c r="E30" s="373" t="s">
+        <v>292</v>
+      </c>
+      <c r="F30" s="373" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="374">
+        <v>1</v>
+      </c>
+      <c r="H30" s="375">
+        <v>15000</v>
+      </c>
+      <c r="I30" s="375">
+        <f t="shared" si="9"/>
+        <v>15000</v>
+      </c>
+      <c r="J30" s="400"/>
+      <c r="K30" s="376">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="L30" s="377">
+        <v>15000</v>
+      </c>
+      <c r="M30" s="405"/>
+      <c r="N30" s="406"/>
+      <c r="O30" s="406"/>
+      <c r="P30" s="382">
+        <v>15000</v>
+      </c>
+      <c r="Q30" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="10" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="370"/>
+      <c r="B31" s="371"/>
+      <c r="C31" s="331" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="372" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" s="373" t="s">
+        <v>292</v>
+      </c>
+      <c r="F31" s="373" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="374">
+        <v>1</v>
+      </c>
+      <c r="H31" s="375">
+        <v>60000</v>
+      </c>
+      <c r="I31" s="375">
+        <f t="shared" si="9"/>
+        <v>60000</v>
+      </c>
+      <c r="J31" s="400"/>
+      <c r="K31" s="376">
+        <f t="shared" si="10"/>
+        <v>60000</v>
+      </c>
+      <c r="L31" s="377">
+        <v>60000</v>
+      </c>
+      <c r="M31" s="405"/>
+      <c r="N31" s="406"/>
+      <c r="O31" s="406">
+        <v>30000</v>
+      </c>
+      <c r="P31" s="382">
+        <v>30000</v>
+      </c>
+      <c r="Q31" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="10" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="370"/>
+      <c r="B32" s="371"/>
+      <c r="C32" s="331" t="s">
+        <v>298</v>
+      </c>
+      <c r="D32" s="404" t="s">
+        <v>299</v>
+      </c>
+      <c r="E32" s="373" t="s">
+        <v>300</v>
+      </c>
+      <c r="F32" s="373" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="374">
+        <v>1</v>
+      </c>
+      <c r="H32" s="375">
+        <v>80000</v>
+      </c>
+      <c r="I32" s="375">
+        <f t="shared" si="9"/>
+        <v>80000</v>
+      </c>
+      <c r="J32" s="400"/>
+      <c r="K32" s="376">
+        <f t="shared" si="10"/>
+        <v>80000</v>
+      </c>
+      <c r="L32" s="377">
+        <v>80000</v>
+      </c>
+      <c r="M32" s="405"/>
+      <c r="N32" s="406"/>
+      <c r="O32" s="406">
+        <v>40000</v>
+      </c>
+      <c r="P32" s="382">
+        <v>40000</v>
+      </c>
+      <c r="Q32" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="370"/>
+      <c r="B33" s="371"/>
+      <c r="C33" s="331" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="372" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33" s="373" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" s="373" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="374">
+        <v>1</v>
+      </c>
+      <c r="H33" s="375">
+        <v>200000</v>
+      </c>
+      <c r="I33" s="375">
+        <f t="shared" si="9"/>
+        <v>200000</v>
+      </c>
+      <c r="J33" s="400"/>
+      <c r="K33" s="376">
+        <f t="shared" si="10"/>
+        <v>200000</v>
+      </c>
+      <c r="L33" s="377">
+        <v>200000</v>
+      </c>
+      <c r="M33" s="405"/>
+      <c r="N33" s="406">
+        <v>60000</v>
+      </c>
+      <c r="O33" s="406">
+        <v>100000</v>
+      </c>
+      <c r="P33" s="382">
+        <v>40000</v>
+      </c>
+      <c r="Q33" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="10" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="370"/>
+      <c r="B34" s="371"/>
+      <c r="C34" s="331" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" s="407" t="s">
+        <v>305</v>
+      </c>
+      <c r="E34" s="373" t="s">
+        <v>306</v>
+      </c>
+      <c r="F34" s="373" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="374">
+        <v>1</v>
+      </c>
+      <c r="H34" s="375">
+        <v>200000</v>
+      </c>
+      <c r="I34" s="375">
+        <f t="shared" si="9"/>
+        <v>200000</v>
+      </c>
+      <c r="J34" s="400"/>
+      <c r="K34" s="376">
+        <f t="shared" si="10"/>
+        <v>200000</v>
+      </c>
+      <c r="L34" s="377">
+        <v>200000</v>
+      </c>
+      <c r="M34" s="405"/>
+      <c r="N34" s="406"/>
+      <c r="O34" s="406">
+        <v>100000</v>
+      </c>
+      <c r="P34" s="382">
+        <v>100000</v>
+      </c>
+      <c r="Q34" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="10" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="370"/>
+      <c r="B35" s="371"/>
+      <c r="C35" s="331" t="s">
+        <v>307</v>
+      </c>
+      <c r="D35" s="408" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" s="373" t="s">
+        <v>306</v>
+      </c>
+      <c r="F35" s="373" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="374">
+        <v>1</v>
+      </c>
+      <c r="H35" s="375">
+        <v>40000</v>
+      </c>
+      <c r="I35" s="375">
+        <f t="shared" si="9"/>
+        <v>40000</v>
+      </c>
+      <c r="J35" s="400"/>
+      <c r="K35" s="376">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="L35" s="377">
+        <v>40000</v>
+      </c>
+      <c r="M35" s="405"/>
+      <c r="N35" s="406">
+        <v>20000</v>
+      </c>
+      <c r="O35" s="406">
+        <v>20000</v>
+      </c>
+      <c r="P35" s="382"/>
+      <c r="Q35" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="10" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="370"/>
+      <c r="B36" s="371"/>
+      <c r="C36" s="331" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" s="407" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36" s="373" t="s">
+        <v>311</v>
+      </c>
+      <c r="F36" s="373" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="374">
+        <v>1</v>
+      </c>
+      <c r="H36" s="375">
+        <v>60000</v>
+      </c>
+      <c r="I36" s="375">
+        <f t="shared" si="9"/>
+        <v>60000</v>
+      </c>
+      <c r="J36" s="400"/>
+      <c r="K36" s="376">
+        <f t="shared" si="10"/>
+        <v>60000</v>
+      </c>
+      <c r="L36" s="377">
+        <v>60000</v>
+      </c>
+      <c r="M36" s="405"/>
+      <c r="N36" s="406">
+        <v>30000</v>
+      </c>
+      <c r="O36" s="406">
+        <v>30000</v>
+      </c>
+      <c r="P36" s="382"/>
+      <c r="Q36" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="10" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="370"/>
+      <c r="B37" s="371"/>
+      <c r="C37" s="331" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="409" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" s="373" t="s">
+        <v>314</v>
+      </c>
+      <c r="F37" s="373" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="410">
+        <v>1</v>
+      </c>
+      <c r="H37" s="375">
+        <v>170000</v>
+      </c>
+      <c r="I37" s="375">
+        <f t="shared" si="9"/>
+        <v>170000</v>
+      </c>
+      <c r="J37" s="411"/>
+      <c r="K37" s="376">
+        <f t="shared" si="10"/>
+        <v>170000</v>
+      </c>
+      <c r="L37" s="377">
+        <v>170000</v>
+      </c>
+      <c r="M37" s="412"/>
+      <c r="N37" s="413">
+        <v>34000</v>
+      </c>
+      <c r="O37" s="413">
+        <v>68000</v>
+      </c>
+      <c r="P37" s="391">
+        <v>68000</v>
+      </c>
+      <c r="Q37" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="414" t="s">
         <v>281</v>
       </c>
-      <c r="F3" s="300" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" s="300" t="s">
+      <c r="B38" s="415"/>
+      <c r="C38" s="416"/>
+      <c r="D38" s="417"/>
+      <c r="E38" s="395"/>
+      <c r="F38" s="395"/>
+      <c r="G38" s="396"/>
+      <c r="H38" s="397">
+        <f>SUM(H26:H37)</f>
+        <v>1181000</v>
+      </c>
+      <c r="I38" s="397">
+        <f>SUM(I26:I37)</f>
+        <v>1187000</v>
+      </c>
+      <c r="J38" s="397"/>
+      <c r="K38" s="418">
+        <f>SUM(K26:K37)</f>
+        <v>1187000</v>
+      </c>
+      <c r="L38" s="397">
+        <f>SUM(L26:L37)</f>
+        <v>1187000</v>
+      </c>
+      <c r="M38" s="397">
+        <f>SUM(M26:M37)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="397">
+        <f t="shared" ref="N38:O38" si="11">SUM(N26:N37)</f>
+        <v>167000</v>
+      </c>
+      <c r="O38" s="397">
+        <f t="shared" si="11"/>
+        <v>589000</v>
+      </c>
+      <c r="P38" s="419">
+        <f>SUM(P26:P37)</f>
+        <v>431000</v>
+      </c>
+      <c r="Q38" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="10" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="420" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="421" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="422" t="s">
+        <v>316</v>
+      </c>
+      <c r="D39" s="423" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" s="373" t="s">
+        <v>318</v>
+      </c>
+      <c r="F39" s="373" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" s="374">
+        <v>15</v>
+      </c>
+      <c r="H39" s="375">
+        <v>42400</v>
+      </c>
+      <c r="I39" s="375">
+        <f>G39*H39</f>
+        <v>636000</v>
+      </c>
+      <c r="J39" s="375"/>
+      <c r="K39" s="376">
+        <f>I39</f>
+        <v>636000</v>
+      </c>
+      <c r="L39" s="424">
+        <v>636000</v>
+      </c>
+      <c r="M39" s="425">
+        <v>636000</v>
+      </c>
+      <c r="N39" s="375"/>
+      <c r="O39" s="375"/>
+      <c r="P39" s="379"/>
+      <c r="Q39" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="10" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="420"/>
+      <c r="B40" s="371"/>
+      <c r="C40" s="422" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" s="426" t="s">
+        <v>320</v>
+      </c>
+      <c r="E40" s="373" t="s">
+        <v>318</v>
+      </c>
+      <c r="F40" s="373" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" s="427">
+        <v>10</v>
+      </c>
+      <c r="H40" s="334">
+        <v>4800</v>
+      </c>
+      <c r="I40" s="375">
+        <f>G40*H40</f>
+        <v>48000</v>
+      </c>
+      <c r="J40" s="375"/>
+      <c r="K40" s="376">
+        <f t="shared" ref="K40" si="12">I40</f>
+        <v>48000</v>
+      </c>
+      <c r="L40" s="424">
+        <v>48000</v>
+      </c>
+      <c r="M40" s="425"/>
+      <c r="N40" s="375"/>
+      <c r="O40" s="375">
+        <v>48000</v>
+      </c>
+      <c r="P40" s="379"/>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="1:17" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="420"/>
+      <c r="B41" s="428"/>
+      <c r="C41" s="380" t="s">
+        <v>321</v>
+      </c>
+      <c r="D41" s="429" t="s">
+        <v>322</v>
+      </c>
+      <c r="E41" s="373" t="s">
+        <v>318</v>
+      </c>
+      <c r="F41" s="373" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="430">
+        <v>1</v>
+      </c>
+      <c r="H41" s="346">
+        <v>100000</v>
+      </c>
+      <c r="I41" s="375">
+        <f>G41*H41</f>
+        <v>100000</v>
+      </c>
+      <c r="J41" s="406"/>
+      <c r="K41" s="376">
+        <v>200000</v>
+      </c>
+      <c r="L41" s="424">
+        <v>100000</v>
+      </c>
+      <c r="M41" s="431"/>
+      <c r="N41" s="406"/>
+      <c r="O41" s="406"/>
+      <c r="P41" s="382">
+        <v>100000</v>
+      </c>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:17" s="10" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="420" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="432" t="s">
+        <v>323</v>
+      </c>
+      <c r="C42" s="422" t="s">
+        <v>324</v>
+      </c>
+      <c r="D42" s="433" t="s">
+        <v>325</v>
+      </c>
+      <c r="E42" s="373" t="s">
+        <v>318</v>
+      </c>
+      <c r="F42" s="373" t="s">
+        <v>259</v>
+      </c>
+      <c r="G42" s="386">
+        <v>1</v>
+      </c>
+      <c r="H42" s="387">
+        <v>36000</v>
+      </c>
+      <c r="I42" s="387">
+        <f>G42*H42</f>
+        <v>36000</v>
+      </c>
+      <c r="J42" s="434"/>
+      <c r="K42" s="388">
+        <v>120000</v>
+      </c>
+      <c r="L42" s="435">
+        <v>36000</v>
+      </c>
+      <c r="M42" s="436"/>
+      <c r="N42" s="387"/>
+      <c r="O42" s="387"/>
+      <c r="P42" s="437">
+        <v>36000</v>
+      </c>
+      <c r="Q42" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="10" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="438" t="s">
         <v>281</v>
       </c>
-      <c r="H3" s="300" t="s">
-        <v>274</v>
-      </c>
-      <c r="I3" s="300" t="s">
-        <v>281</v>
-      </c>
-      <c r="J3" s="300" t="s">
-        <v>274</v>
-      </c>
-      <c r="K3" s="300" t="s">
-        <v>281</v>
-      </c>
-      <c r="L3" s="301" t="s">
+      <c r="B43" s="439"/>
+      <c r="C43" s="440"/>
+      <c r="D43" s="439"/>
+      <c r="E43" s="441"/>
+      <c r="F43" s="441"/>
+      <c r="G43" s="442"/>
+      <c r="H43" s="443">
+        <f>SUM(H39:H42)</f>
+        <v>183200</v>
+      </c>
+      <c r="I43" s="443">
+        <f>SUM(I39:I42)</f>
+        <v>820000</v>
+      </c>
+      <c r="J43" s="442"/>
+      <c r="K43" s="444">
+        <f t="shared" ref="K43:P43" si="13">SUM(K39:K42)</f>
+        <v>1004000</v>
+      </c>
+      <c r="L43" s="445">
+        <f t="shared" si="13"/>
+        <v>820000</v>
+      </c>
+      <c r="M43" s="446">
+        <f t="shared" si="13"/>
+        <v>636000</v>
+      </c>
+      <c r="N43" s="443">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="443">
+        <f t="shared" si="13"/>
+        <v>48000</v>
+      </c>
+      <c r="P43" s="447">
+        <f t="shared" si="13"/>
+        <v>136000</v>
+      </c>
+      <c r="Q43" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="448" t="s">
+        <v>326</v>
+      </c>
+      <c r="B44" s="449"/>
+      <c r="C44" s="449"/>
+      <c r="D44" s="449"/>
+      <c r="E44" s="449"/>
+      <c r="F44" s="449"/>
+      <c r="G44" s="449"/>
+      <c r="H44" s="450"/>
+      <c r="I44" s="451">
+        <f t="shared" ref="I44:P44" si="14">I43+I38+I25</f>
+        <v>2107000</v>
+      </c>
+      <c r="J44" s="451">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="451">
+        <f t="shared" si="14"/>
+        <v>2291000</v>
+      </c>
+      <c r="L44" s="451">
+        <f t="shared" si="14"/>
+        <v>2107000</v>
+      </c>
+      <c r="M44" s="451">
+        <f t="shared" si="14"/>
+        <v>636000</v>
+      </c>
+      <c r="N44" s="451">
+        <f t="shared" si="14"/>
+        <v>167000</v>
+      </c>
+      <c r="O44" s="451">
+        <f t="shared" si="14"/>
+        <v>690500</v>
+      </c>
+      <c r="P44" s="451">
+        <f t="shared" si="14"/>
+        <v>613500</v>
+      </c>
+      <c r="Q44" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="326" t="s">
+        <v>327</v>
+      </c>
+      <c r="B45" s="327"/>
+      <c r="C45" s="327"/>
+      <c r="D45" s="327"/>
+      <c r="E45" s="327"/>
+      <c r="F45" s="327"/>
+      <c r="G45" s="327"/>
+      <c r="H45" s="327"/>
+      <c r="I45" s="327"/>
+      <c r="J45" s="327"/>
+      <c r="K45" s="327"/>
+      <c r="L45" s="327"/>
+      <c r="M45" s="327"/>
+      <c r="N45" s="327"/>
+      <c r="O45" s="327"/>
+      <c r="P45" s="328"/>
+      <c r="Q45" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="10" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="452" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="453" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" s="454" t="s">
+        <v>328</v>
+      </c>
+      <c r="D46" s="455" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="456" t="s">
+        <v>329</v>
+      </c>
+      <c r="F46" s="456" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="457">
+        <v>1</v>
+      </c>
+      <c r="H46" s="458">
+        <v>590000</v>
+      </c>
+      <c r="I46" s="458">
+        <f>H46*G46</f>
+        <v>590000</v>
+      </c>
+      <c r="J46" s="459"/>
+      <c r="K46" s="460">
+        <v>590000</v>
+      </c>
+      <c r="L46" s="377">
+        <v>118000</v>
+      </c>
+      <c r="M46" s="461"/>
+      <c r="N46" s="458"/>
+      <c r="O46" s="458">
+        <v>118000</v>
+      </c>
+      <c r="P46" s="462"/>
+      <c r="Q46" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="463" t="s">
+        <v>330</v>
+      </c>
+      <c r="B47" s="464"/>
+      <c r="C47" s="464"/>
+      <c r="D47" s="464"/>
+      <c r="E47" s="464"/>
+      <c r="F47" s="464"/>
+      <c r="G47" s="464"/>
+      <c r="H47" s="465"/>
+      <c r="I47" s="466">
+        <f>SUM(I46)</f>
+        <v>590000</v>
+      </c>
+      <c r="J47" s="467">
+        <f t="shared" ref="J47:P47" si="15">SUM(J46)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="466">
+        <f t="shared" si="15"/>
+        <v>590000</v>
+      </c>
+      <c r="L47" s="466">
+        <f t="shared" si="15"/>
+        <v>118000</v>
+      </c>
+      <c r="M47" s="466">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="466">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="466">
+        <f t="shared" si="15"/>
+        <v>118000</v>
+      </c>
+      <c r="P47" s="466">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="326" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" s="327"/>
+      <c r="C48" s="327"/>
+      <c r="D48" s="327"/>
+      <c r="E48" s="327"/>
+      <c r="F48" s="327"/>
+      <c r="G48" s="327"/>
+      <c r="H48" s="327"/>
+      <c r="I48" s="327"/>
+      <c r="J48" s="327"/>
+      <c r="K48" s="327"/>
+      <c r="L48" s="327"/>
+      <c r="M48" s="327"/>
+      <c r="N48" s="327"/>
+      <c r="O48" s="327"/>
+      <c r="P48" s="328"/>
+      <c r="Q48" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="10" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="468" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="469" t="s">
+        <v>332</v>
+      </c>
+      <c r="C49" s="470" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="471" t="s">
+        <v>333</v>
+      </c>
+      <c r="E49" s="472" t="s">
+        <v>280</v>
+      </c>
+      <c r="F49" s="472" t="s">
+        <v>259</v>
+      </c>
+      <c r="G49" s="473">
+        <v>1</v>
+      </c>
+      <c r="H49" s="402">
+        <v>40970</v>
+      </c>
+      <c r="I49" s="402">
+        <f>H49*G49</f>
+        <v>40970</v>
+      </c>
+      <c r="J49" s="402">
+        <v>100000</v>
+      </c>
+      <c r="K49" s="402">
+        <v>104850</v>
+      </c>
+      <c r="L49" s="377">
+        <f>I49</f>
+        <v>40970</v>
+      </c>
+      <c r="M49" s="474"/>
+      <c r="N49" s="402"/>
+      <c r="O49" s="402">
+        <f>L49</f>
+        <v>40970</v>
+      </c>
+      <c r="P49" s="403"/>
+      <c r="Q49" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="S49" s="61"/>
+    </row>
+    <row r="50" spans="1:21" s="10" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="475"/>
+      <c r="B50" s="476"/>
+      <c r="C50" s="380" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" s="477" t="s">
+        <v>335</v>
+      </c>
+      <c r="E50" s="478" t="s">
+        <v>280</v>
+      </c>
+      <c r="F50" s="478" t="s">
+        <v>217</v>
+      </c>
+      <c r="G50" s="410">
+        <v>1</v>
+      </c>
+      <c r="H50" s="406">
+        <v>50000</v>
+      </c>
+      <c r="I50" s="406">
+        <f>H50*G50</f>
+        <v>50000</v>
+      </c>
+      <c r="J50" s="406"/>
+      <c r="K50" s="479">
+        <v>50000</v>
+      </c>
+      <c r="L50" s="377">
+        <v>15000</v>
+      </c>
+      <c r="M50" s="431"/>
+      <c r="N50" s="406"/>
+      <c r="O50" s="406"/>
+      <c r="P50" s="382">
+        <v>15000</v>
+      </c>
+      <c r="Q50" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="S50" s="61"/>
+    </row>
+    <row r="51" spans="1:21" s="10" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="480"/>
+      <c r="B51" s="481"/>
+      <c r="C51" s="482" t="s">
+        <v>336</v>
+      </c>
+      <c r="D51" s="483" t="s">
+        <v>337</v>
+      </c>
+      <c r="E51" s="484" t="s">
+        <v>280</v>
+      </c>
+      <c r="F51" s="484" t="s">
         <v>183</v>
       </c>
-      <c r="M3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="N3" s="301" t="s">
-        <v>183</v>
-      </c>
-      <c r="O3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="P3" s="301" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="R3" s="301" t="s">
-        <v>183</v>
-      </c>
-      <c r="S3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="T3" s="301" t="s">
-        <v>183</v>
-      </c>
-      <c r="U3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="V3" s="301" t="s">
-        <v>183</v>
-      </c>
-      <c r="W3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="X3" s="301" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z3" s="301" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB3" s="301" t="s">
+      <c r="G51" s="485">
+        <v>1</v>
+      </c>
+      <c r="H51" s="413">
+        <v>25000</v>
+      </c>
+      <c r="I51" s="390">
+        <f>H51*G51</f>
+        <v>25000</v>
+      </c>
+      <c r="J51" s="390">
+        <v>40000</v>
+      </c>
+      <c r="K51" s="486">
+        <v>100000</v>
+      </c>
+      <c r="L51" s="487">
+        <v>25000</v>
+      </c>
+      <c r="M51" s="488"/>
+      <c r="N51" s="413">
+        <v>12000</v>
+      </c>
+      <c r="O51" s="413">
+        <v>13000</v>
+      </c>
+      <c r="P51" s="391"/>
+      <c r="Q51" s="9" t="str">
+        <f>IF(L51=M51+N51+O51+P51,"OK",M51-N51-O51-P51)</f>
+        <v>OK</v>
+      </c>
+      <c r="S51" s="61"/>
+    </row>
+    <row r="52" spans="1:21" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="448" t="s">
+        <v>338</v>
+      </c>
+      <c r="B52" s="449"/>
+      <c r="C52" s="449"/>
+      <c r="D52" s="449"/>
+      <c r="E52" s="449"/>
+      <c r="F52" s="449"/>
+      <c r="G52" s="449"/>
+      <c r="H52" s="450"/>
+      <c r="I52" s="451">
+        <f t="shared" ref="I52:P52" si="16">SUM(I49:I51)</f>
+        <v>115970</v>
+      </c>
+      <c r="J52" s="451">
+        <f t="shared" si="16"/>
+        <v>140000</v>
+      </c>
+      <c r="K52" s="451">
+        <f>SUM(K49:K51)</f>
+        <v>254850</v>
+      </c>
+      <c r="L52" s="451">
+        <f t="shared" si="16"/>
+        <v>80970</v>
+      </c>
+      <c r="M52" s="451">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="451">
+        <f t="shared" si="16"/>
+        <v>12000</v>
+      </c>
+      <c r="O52" s="451">
+        <f>SUM(O49:O51)</f>
+        <v>53970</v>
+      </c>
+      <c r="P52" s="451">
+        <f t="shared" si="16"/>
+        <v>15000</v>
+      </c>
+      <c r="Q52" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="489" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="490"/>
+      <c r="C53" s="490"/>
+      <c r="D53" s="490"/>
+      <c r="E53" s="490"/>
+      <c r="F53" s="490"/>
+      <c r="G53" s="490"/>
+      <c r="H53" s="491"/>
+      <c r="I53" s="492">
+        <f t="shared" ref="I53:P53" si="17">I52+I47+I44+I20</f>
+        <v>2952770</v>
+      </c>
+      <c r="J53" s="492">
+        <f t="shared" si="17"/>
+        <v>140000</v>
+      </c>
+      <c r="K53" s="492">
+        <f t="shared" si="17"/>
+        <v>3281150</v>
+      </c>
+      <c r="L53" s="492">
+        <f>L52+L47+L44+L20</f>
+        <v>2445770</v>
+      </c>
+      <c r="M53" s="492">
+        <f t="shared" si="17"/>
+        <v>636000</v>
+      </c>
+      <c r="N53" s="492">
+        <f t="shared" si="17"/>
+        <v>214800</v>
+      </c>
+      <c r="O53" s="492">
+        <f t="shared" si="17"/>
+        <v>904470</v>
+      </c>
+      <c r="P53" s="492">
+        <f t="shared" si="17"/>
+        <v>690500</v>
+      </c>
+      <c r="Q53" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R53" s="10"/>
+    </row>
+    <row r="54" spans="1:21" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="493" t="s">
+        <v>339</v>
+      </c>
+      <c r="B54" s="494"/>
+      <c r="C54" s="494"/>
+      <c r="D54" s="494"/>
+      <c r="E54" s="494"/>
+      <c r="F54" s="494"/>
+      <c r="G54" s="494"/>
+      <c r="H54" s="494"/>
+      <c r="I54" s="494"/>
+      <c r="J54" s="494"/>
+      <c r="K54" s="494"/>
+      <c r="L54" s="494"/>
+      <c r="M54" s="494"/>
+      <c r="N54" s="494"/>
+      <c r="O54" s="494"/>
+      <c r="P54" s="495"/>
+      <c r="Q54" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+    </row>
+    <row r="55" spans="1:21" s="4" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="496" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="497" t="s">
+        <v>340</v>
+      </c>
+      <c r="C55" s="498" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="499" t="s">
+        <v>341</v>
+      </c>
+      <c r="E55" s="500" t="s">
+        <v>342</v>
+      </c>
+      <c r="F55" s="500" t="s">
         <v>217</v>
       </c>
-      <c r="AC3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD3" s="301" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF3" s="301" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH3" s="301" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ3" s="301" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="AL3" s="301" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="AN3" s="301" t="s">
-        <v>276</v>
-      </c>
-      <c r="AO3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="AP3" s="301" t="s">
-        <v>276</v>
-      </c>
-      <c r="AQ3" s="301" t="s">
-        <v>281</v>
-      </c>
-      <c r="AR3" s="299" t="s">
-        <v>275</v>
-      </c>
-      <c r="AS3" s="299" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="303" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="304"/>
-      <c r="C4" s="304"/>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="I4" s="305">
-        <v>6000</v>
-      </c>
-      <c r="J4" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="305">
-        <v>6000</v>
-      </c>
-      <c r="L4" s="306" t="s">
-        <v>278</v>
-      </c>
-      <c r="M4" s="306"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="306" t="s">
-        <v>200</v>
-      </c>
-      <c r="U4" s="307">
-        <v>105000</v>
-      </c>
-      <c r="V4" s="306" t="s">
-        <v>199</v>
-      </c>
-      <c r="W4" s="307">
+      <c r="G55" s="501">
+        <v>1</v>
+      </c>
+      <c r="H55" s="402">
+        <v>180000</v>
+      </c>
+      <c r="I55" s="402">
+        <f>G55*H55</f>
+        <v>180000</v>
+      </c>
+      <c r="J55" s="402"/>
+      <c r="K55" s="502">
+        <v>180000</v>
+      </c>
+      <c r="L55" s="377">
+        <v>108000</v>
+      </c>
+      <c r="M55" s="474"/>
+      <c r="N55" s="402"/>
+      <c r="O55" s="503">
+        <v>21600</v>
+      </c>
+      <c r="P55" s="504">
+        <v>86400</v>
+      </c>
+      <c r="Q55" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R55" s="10"/>
+      <c r="S55" s="505"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+    </row>
+    <row r="56" spans="1:21" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="506" t="s">
+        <v>343</v>
+      </c>
+      <c r="B56" s="507"/>
+      <c r="C56" s="507"/>
+      <c r="D56" s="507"/>
+      <c r="E56" s="507"/>
+      <c r="F56" s="507"/>
+      <c r="G56" s="507"/>
+      <c r="H56" s="508"/>
+      <c r="I56" s="367">
+        <f t="shared" ref="I56:P56" si="18">SUM(I55:I55)</f>
+        <v>180000</v>
+      </c>
+      <c r="J56" s="369">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="367">
+        <f t="shared" si="18"/>
+        <v>180000</v>
+      </c>
+      <c r="L56" s="369">
+        <f t="shared" si="18"/>
+        <v>108000</v>
+      </c>
+      <c r="M56" s="367">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="367">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="367">
+        <f t="shared" si="18"/>
+        <v>21600</v>
+      </c>
+      <c r="P56" s="367">
+        <f t="shared" si="18"/>
+        <v>86400</v>
+      </c>
+      <c r="Q56" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" s="10" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="509" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="510" t="s">
+        <v>344</v>
+      </c>
+      <c r="C57" s="345" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="511" t="s">
+        <v>345</v>
+      </c>
+      <c r="E57" s="512" t="s">
+        <v>346</v>
+      </c>
+      <c r="F57" s="512" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="410">
+        <v>1</v>
+      </c>
+      <c r="H57" s="406">
+        <v>407664</v>
+      </c>
+      <c r="I57" s="375">
+        <f>G57*H57</f>
+        <v>407664</v>
+      </c>
+      <c r="J57" s="375"/>
+      <c r="K57" s="376">
+        <f>I57</f>
+        <v>407664</v>
+      </c>
+      <c r="L57" s="377">
+        <f>N57+P57</f>
+        <v>142681.71585400001</v>
+      </c>
+      <c r="M57" s="513"/>
+      <c r="N57" s="375">
+        <v>81532</v>
+      </c>
+      <c r="O57" s="514"/>
+      <c r="P57" s="515">
+        <v>61149.715853999995</v>
+      </c>
+      <c r="Q57" s="9" t="str">
+        <f>IF(L57=M57+N57+O57+P57,"OK",M57-N57-O57-P57)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" s="10" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="509"/>
+      <c r="B58" s="510"/>
+      <c r="C58" s="345" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="516" t="s">
+        <v>347</v>
+      </c>
+      <c r="E58" s="517" t="s">
+        <v>348</v>
+      </c>
+      <c r="F58" s="512" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="410">
+        <v>1</v>
+      </c>
+      <c r="H58" s="406">
+        <v>300000</v>
+      </c>
+      <c r="I58" s="406">
+        <f>H58*G58</f>
+        <v>300000</v>
+      </c>
+      <c r="J58" s="406"/>
+      <c r="K58" s="376">
+        <v>300000</v>
+      </c>
+      <c r="L58" s="377">
+        <v>100000</v>
+      </c>
+      <c r="M58" s="431"/>
+      <c r="N58" s="406"/>
+      <c r="O58" s="23">
+        <v>100000</v>
+      </c>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" s="10" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="509"/>
+      <c r="B59" s="510"/>
+      <c r="C59" s="345" t="s">
+        <v>349</v>
+      </c>
+      <c r="D59" s="516" t="s">
+        <v>350</v>
+      </c>
+      <c r="E59" s="512" t="s">
+        <v>351</v>
+      </c>
+      <c r="F59" s="517" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" s="430">
+        <v>1</v>
+      </c>
+      <c r="H59" s="406">
+        <v>730000</v>
+      </c>
+      <c r="I59" s="406">
+        <f>H59*G59</f>
+        <v>730000</v>
+      </c>
+      <c r="J59" s="406"/>
+      <c r="K59" s="376">
+        <v>730000</v>
+      </c>
+      <c r="L59" s="377">
+        <v>292000</v>
+      </c>
+      <c r="M59" s="431"/>
+      <c r="N59" s="431"/>
+      <c r="O59" s="23">
+        <v>146000</v>
+      </c>
+      <c r="P59" s="23">
+        <v>146000</v>
+      </c>
+      <c r="Q59" s="9" t="str">
+        <f>IF(L59=M59+N59+O59+P59,"OK",M59-N59-O59-P59)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="509"/>
+      <c r="B60" s="510"/>
+      <c r="C60" s="345" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="518" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" s="519" t="s">
+        <v>353</v>
+      </c>
+      <c r="F60" s="519" t="s">
+        <v>354</v>
+      </c>
+      <c r="G60" s="520">
+        <v>1</v>
+      </c>
+      <c r="H60" s="347">
+        <v>19000</v>
+      </c>
+      <c r="I60" s="521">
+        <f>H60*G60</f>
+        <v>19000</v>
+      </c>
+      <c r="J60" s="522"/>
+      <c r="K60" s="388">
+        <v>100000</v>
+      </c>
+      <c r="L60" s="523">
+        <v>24000</v>
+      </c>
+      <c r="M60" s="524"/>
+      <c r="N60" s="522"/>
+      <c r="O60" s="525">
+        <v>19000</v>
+      </c>
+      <c r="P60" s="525">
         <v>5000</v>
       </c>
-      <c r="X4" s="306" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" s="307">
-        <v>160000</v>
-      </c>
-      <c r="Z4" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA4" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB4" s="308"/>
-      <c r="AC4" s="308"/>
-      <c r="AD4" s="308"/>
-      <c r="AE4" s="308"/>
-      <c r="AF4" s="308" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG4" s="309">
-        <v>205000</v>
-      </c>
-      <c r="AH4" s="308" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI4" s="309">
-        <v>150000</v>
-      </c>
-      <c r="AJ4" s="308" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK4" s="309">
-        <v>60000</v>
-      </c>
-      <c r="AL4" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM4" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN4" s="312" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO4" s="313">
-        <v>449000</v>
-      </c>
-      <c r="AP4" s="312"/>
-      <c r="AQ4" s="312"/>
-      <c r="AR4" s="299"/>
-      <c r="AS4" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="303" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" s="304" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="315">
+      <c r="Q60" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="526" t="s">
+        <v>355</v>
+      </c>
+      <c r="B61" s="449"/>
+      <c r="C61" s="449"/>
+      <c r="D61" s="449"/>
+      <c r="E61" s="449"/>
+      <c r="F61" s="449"/>
+      <c r="G61" s="449"/>
+      <c r="H61" s="449"/>
+      <c r="I61" s="527">
+        <f>SUM(I57:I60)</f>
+        <v>1456664</v>
+      </c>
+      <c r="J61" s="527">
+        <f>SUM(J60:J60)</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="527">
+        <f t="shared" ref="K61:O61" si="19">SUM(K57:K60)</f>
+        <v>1537664</v>
+      </c>
+      <c r="L61" s="527">
+        <f t="shared" si="19"/>
+        <v>558681.71585400007</v>
+      </c>
+      <c r="M61" s="527">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="527">
+        <f t="shared" si="19"/>
+        <v>81532</v>
+      </c>
+      <c r="O61" s="527">
+        <f t="shared" si="19"/>
+        <v>265000</v>
+      </c>
+      <c r="P61" s="527">
+        <f>SUM(P57:P60)</f>
+        <v>212149.71585400001</v>
+      </c>
+      <c r="Q61" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="489" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="528"/>
+      <c r="C62" s="528"/>
+      <c r="D62" s="528"/>
+      <c r="E62" s="528"/>
+      <c r="F62" s="528"/>
+      <c r="G62" s="528"/>
+      <c r="H62" s="528"/>
+      <c r="I62" s="529">
+        <f>+I61+I56</f>
+        <v>1636664</v>
+      </c>
+      <c r="J62" s="529">
+        <f t="shared" ref="J62:P62" si="20">+J61+J56</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="529">
+        <f t="shared" si="20"/>
+        <v>1717664</v>
+      </c>
+      <c r="L62" s="529">
+        <f t="shared" si="20"/>
+        <v>666681.71585400007</v>
+      </c>
+      <c r="M62" s="529">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="529">
+        <f t="shared" si="20"/>
+        <v>81532</v>
+      </c>
+      <c r="O62" s="529">
+        <f t="shared" si="20"/>
+        <v>286600</v>
+      </c>
+      <c r="P62" s="529">
+        <f t="shared" si="20"/>
+        <v>298549.71585400001</v>
+      </c>
+      <c r="Q62" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R62" s="10"/>
+    </row>
+    <row r="63" spans="1:21" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="B63" s="323"/>
+      <c r="C63" s="323"/>
+      <c r="D63" s="323"/>
+      <c r="E63" s="323"/>
+      <c r="F63" s="323"/>
+      <c r="G63" s="323"/>
+      <c r="H63" s="323"/>
+      <c r="I63" s="530"/>
+      <c r="J63" s="530"/>
+      <c r="K63" s="530"/>
+      <c r="L63" s="530"/>
+      <c r="M63" s="530"/>
+      <c r="N63" s="530"/>
+      <c r="O63" s="530"/>
+      <c r="P63" s="531"/>
+      <c r="Q63" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R63" s="10"/>
+    </row>
+    <row r="64" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="532" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="533" t="s">
+        <v>357</v>
+      </c>
+      <c r="C64" s="534" t="s">
+        <v>358</v>
+      </c>
+      <c r="D64" s="535" t="s">
+        <v>359</v>
+      </c>
+      <c r="E64" s="536" t="s">
+        <v>360</v>
+      </c>
+      <c r="F64" s="536" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="473">
+        <v>1</v>
+      </c>
+      <c r="H64" s="537">
         <v>400000</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="305">
-        <v>6000</v>
-      </c>
-      <c r="J5" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="K5" s="305">
-        <v>6000</v>
-      </c>
-      <c r="L5" s="306" t="s">
-        <v>278</v>
-      </c>
-      <c r="M5" s="306"/>
-      <c r="N5" s="306" t="s">
-        <v>237</v>
-      </c>
-      <c r="O5" s="307">
-        <v>23000</v>
-      </c>
-      <c r="P5" s="306" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q5" s="307">
-        <v>32000</v>
-      </c>
-      <c r="R5" s="306" t="s">
-        <v>236</v>
-      </c>
-      <c r="S5" s="307">
+      <c r="I64" s="402">
+        <f>G64*H64</f>
+        <v>400000</v>
+      </c>
+      <c r="J64" s="402"/>
+      <c r="K64" s="502">
+        <f>I64</f>
+        <v>400000</v>
+      </c>
+      <c r="L64" s="538">
+        <v>400000</v>
+      </c>
+      <c r="M64" s="539"/>
+      <c r="N64" s="540"/>
+      <c r="O64" s="541">
+        <v>400000</v>
+      </c>
+      <c r="P64" s="542"/>
+      <c r="Q64" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R64" s="10"/>
+    </row>
+    <row r="65" spans="1:18" s="34" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="543" t="s">
+        <v>361</v>
+      </c>
+      <c r="B65" s="544"/>
+      <c r="C65" s="544"/>
+      <c r="D65" s="544"/>
+      <c r="E65" s="544"/>
+      <c r="F65" s="544"/>
+      <c r="G65" s="544"/>
+      <c r="H65" s="545"/>
+      <c r="I65" s="451">
+        <f t="shared" ref="I65:P65" si="21">SUM(I64:I64)</f>
+        <v>400000</v>
+      </c>
+      <c r="J65" s="451">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="451">
+        <f t="shared" si="21"/>
+        <v>400000</v>
+      </c>
+      <c r="L65" s="451">
+        <f t="shared" si="21"/>
+        <v>400000</v>
+      </c>
+      <c r="M65" s="451">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="451">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="451">
+        <f t="shared" si="21"/>
+        <v>400000</v>
+      </c>
+      <c r="P65" s="451">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R65" s="10"/>
+    </row>
+    <row r="66" spans="1:18" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="489" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="490"/>
+      <c r="C66" s="490"/>
+      <c r="D66" s="490"/>
+      <c r="E66" s="490"/>
+      <c r="F66" s="490"/>
+      <c r="G66" s="490"/>
+      <c r="H66" s="491"/>
+      <c r="I66" s="546">
+        <f>I65</f>
+        <v>400000</v>
+      </c>
+      <c r="J66" s="546">
+        <f t="shared" ref="J66:P66" si="22">J65</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="546">
+        <f t="shared" si="22"/>
+        <v>400000</v>
+      </c>
+      <c r="L66" s="546">
+        <f t="shared" si="22"/>
+        <v>400000</v>
+      </c>
+      <c r="M66" s="546">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="546">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="546">
+        <f t="shared" si="22"/>
+        <v>400000</v>
+      </c>
+      <c r="P66" s="546">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R66" s="10"/>
+    </row>
+    <row r="67" spans="1:18" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="493" t="s">
+        <v>362</v>
+      </c>
+      <c r="B67" s="494"/>
+      <c r="C67" s="494"/>
+      <c r="D67" s="494"/>
+      <c r="E67" s="494"/>
+      <c r="F67" s="494"/>
+      <c r="G67" s="494"/>
+      <c r="H67" s="494"/>
+      <c r="I67" s="494"/>
+      <c r="J67" s="494"/>
+      <c r="K67" s="494"/>
+      <c r="L67" s="494"/>
+      <c r="M67" s="494"/>
+      <c r="N67" s="494"/>
+      <c r="O67" s="494"/>
+      <c r="P67" s="495"/>
+      <c r="Q67" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R67" s="10"/>
+    </row>
+    <row r="68" spans="1:18" s="10" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="547" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="548" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="549" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="548" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="550"/>
+      <c r="F68" s="550" t="s">
+        <v>363</v>
+      </c>
+      <c r="G68" s="457">
+        <v>1</v>
+      </c>
+      <c r="H68" s="551">
+        <v>1673407</v>
+      </c>
+      <c r="I68" s="458">
+        <f>H68*G68</f>
+        <v>1673407</v>
+      </c>
+      <c r="J68" s="458"/>
+      <c r="K68" s="552">
+        <f>I68</f>
+        <v>1673407</v>
+      </c>
+      <c r="L68" s="377">
+        <v>371000</v>
+      </c>
+      <c r="M68" s="461">
+        <v>92750</v>
+      </c>
+      <c r="N68" s="461">
+        <v>92750</v>
+      </c>
+      <c r="O68" s="461">
+        <v>92750</v>
+      </c>
+      <c r="P68" s="461">
+        <v>92750</v>
+      </c>
+      <c r="Q68" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="553" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="554"/>
+      <c r="C69" s="554"/>
+      <c r="D69" s="554"/>
+      <c r="E69" s="554"/>
+      <c r="F69" s="554"/>
+      <c r="G69" s="554"/>
+      <c r="H69" s="555"/>
+      <c r="I69" s="367">
+        <f>SUM(I68)</f>
+        <v>1673407</v>
+      </c>
+      <c r="J69" s="367">
+        <f t="shared" ref="J69:P69" si="23">SUM(J68)</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="367">
+        <f t="shared" si="23"/>
+        <v>1673407</v>
+      </c>
+      <c r="L69" s="367">
+        <f t="shared" si="23"/>
+        <v>371000</v>
+      </c>
+      <c r="M69" s="367">
+        <f t="shared" si="23"/>
+        <v>92750</v>
+      </c>
+      <c r="N69" s="367">
+        <f t="shared" si="23"/>
+        <v>92750</v>
+      </c>
+      <c r="O69" s="367">
+        <f t="shared" si="23"/>
+        <v>92750</v>
+      </c>
+      <c r="P69" s="367">
+        <f t="shared" si="23"/>
+        <v>92750</v>
+      </c>
+      <c r="Q69" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R69" s="10"/>
+    </row>
+    <row r="70" spans="1:18" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="556" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="557" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="558" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="511" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="333"/>
+      <c r="F70" s="333" t="s">
+        <v>363</v>
+      </c>
+      <c r="G70" s="374">
+        <v>12</v>
+      </c>
+      <c r="H70" s="406">
+        <v>5200</v>
+      </c>
+      <c r="I70" s="406">
+        <f>H70*G70</f>
+        <v>62400</v>
+      </c>
+      <c r="J70" s="559"/>
+      <c r="K70" s="376">
+        <f t="shared" ref="K70:K73" si="24">H70*G70</f>
+        <v>62400</v>
+      </c>
+      <c r="L70" s="377">
+        <f>K70</f>
+        <v>62400</v>
+      </c>
+      <c r="M70" s="431">
+        <f>L70/4</f>
+        <v>15600</v>
+      </c>
+      <c r="N70" s="431">
+        <v>15600</v>
+      </c>
+      <c r="O70" s="431">
+        <v>15600</v>
+      </c>
+      <c r="P70" s="431">
+        <v>15600</v>
+      </c>
+      <c r="Q70" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R70" s="10"/>
+    </row>
+    <row r="71" spans="1:18" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="560"/>
+      <c r="B71" s="561"/>
+      <c r="C71" s="562" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="563" t="s">
+        <v>364</v>
+      </c>
+      <c r="E71" s="333"/>
+      <c r="F71" s="333" t="s">
+        <v>363</v>
+      </c>
+      <c r="G71" s="374">
+        <v>12</v>
+      </c>
+      <c r="H71" s="406">
+        <v>3135</v>
+      </c>
+      <c r="I71" s="406">
+        <f>H71*G71</f>
+        <v>37620</v>
+      </c>
+      <c r="J71" s="559"/>
+      <c r="K71" s="376">
+        <f t="shared" si="24"/>
+        <v>37620</v>
+      </c>
+      <c r="L71" s="377">
+        <v>37620</v>
+      </c>
+      <c r="M71" s="431">
+        <v>9405</v>
+      </c>
+      <c r="N71" s="431">
+        <v>9405</v>
+      </c>
+      <c r="O71" s="431">
+        <v>9405</v>
+      </c>
+      <c r="P71" s="431">
+        <v>9405</v>
+      </c>
+      <c r="Q71" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="560"/>
+      <c r="B72" s="561"/>
+      <c r="C72" s="562" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="563" t="s">
+        <v>365</v>
+      </c>
+      <c r="E72" s="333"/>
+      <c r="F72" s="333" t="s">
+        <v>363</v>
+      </c>
+      <c r="G72" s="374">
+        <v>12</v>
+      </c>
+      <c r="H72" s="406">
+        <v>3135</v>
+      </c>
+      <c r="I72" s="406">
+        <f>H72*G72</f>
+        <v>37620</v>
+      </c>
+      <c r="J72" s="559"/>
+      <c r="K72" s="376">
+        <f t="shared" si="24"/>
+        <v>37620</v>
+      </c>
+      <c r="L72" s="377">
+        <v>37620</v>
+      </c>
+      <c r="M72" s="431">
+        <v>9405</v>
+      </c>
+      <c r="N72" s="431">
+        <v>9405</v>
+      </c>
+      <c r="O72" s="431">
+        <v>9405</v>
+      </c>
+      <c r="P72" s="431">
+        <v>9405</v>
+      </c>
+      <c r="Q72" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="560"/>
+      <c r="B73" s="561"/>
+      <c r="C73" s="562" t="s">
+        <v>366</v>
+      </c>
+      <c r="D73" s="563" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="333"/>
+      <c r="F73" s="333" t="s">
+        <v>363</v>
+      </c>
+      <c r="G73" s="374">
+        <v>12</v>
+      </c>
+      <c r="H73" s="406">
+        <v>900</v>
+      </c>
+      <c r="I73" s="406">
+        <f>H73*G73</f>
+        <v>10800</v>
+      </c>
+      <c r="J73" s="559"/>
+      <c r="K73" s="479">
+        <f t="shared" si="24"/>
+        <v>10800</v>
+      </c>
+      <c r="L73" s="377">
+        <v>10800</v>
+      </c>
+      <c r="M73" s="564">
+        <v>2700</v>
+      </c>
+      <c r="N73" s="564">
+        <v>2700</v>
+      </c>
+      <c r="O73" s="564">
+        <v>2700</v>
+      </c>
+      <c r="P73" s="564">
+        <v>2700</v>
+      </c>
+      <c r="Q73" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="565"/>
+      <c r="B74" s="566"/>
+      <c r="C74" s="567" t="s">
+        <v>367</v>
+      </c>
+      <c r="D74" s="568" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="569"/>
+      <c r="F74" s="333" t="s">
+        <v>363</v>
+      </c>
+      <c r="G74" s="374">
+        <v>12</v>
+      </c>
+      <c r="H74" s="522"/>
+      <c r="I74" s="522"/>
+      <c r="J74" s="570">
+        <v>1899936</v>
+      </c>
+      <c r="K74" s="570"/>
+      <c r="L74" s="377"/>
+      <c r="M74" s="571"/>
+      <c r="N74" s="571"/>
+      <c r="O74" s="571"/>
+      <c r="P74" s="571"/>
+      <c r="Q74" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="363" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="364"/>
+      <c r="C75" s="364"/>
+      <c r="D75" s="364"/>
+      <c r="E75" s="364"/>
+      <c r="F75" s="364"/>
+      <c r="G75" s="364"/>
+      <c r="H75" s="572"/>
+      <c r="I75" s="367">
+        <f t="shared" ref="I75:K75" si="25">SUM(I71:I74)</f>
+        <v>86040</v>
+      </c>
+      <c r="J75" s="367">
+        <f t="shared" si="25"/>
+        <v>1899936</v>
+      </c>
+      <c r="K75" s="367">
+        <f t="shared" si="25"/>
+        <v>86040</v>
+      </c>
+      <c r="L75" s="367">
+        <f>SUM(L70:L74)</f>
+        <v>148440</v>
+      </c>
+      <c r="M75" s="367">
+        <f>SUM(M70:M73)</f>
+        <v>37110</v>
+      </c>
+      <c r="N75" s="367">
+        <f t="shared" ref="N75:P75" si="26">SUM(N70:N73)</f>
+        <v>37110</v>
+      </c>
+      <c r="O75" s="367">
+        <f t="shared" si="26"/>
+        <v>37110</v>
+      </c>
+      <c r="P75" s="367">
+        <f t="shared" si="26"/>
+        <v>37110</v>
+      </c>
+      <c r="Q75" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R75" s="10"/>
+    </row>
+    <row r="76" spans="1:18" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="573" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="469" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="574" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" s="575" t="s">
+        <v>368</v>
+      </c>
+      <c r="E76" s="498"/>
+      <c r="F76" s="498" t="s">
+        <v>363</v>
+      </c>
+      <c r="G76" s="576">
+        <v>1</v>
+      </c>
+      <c r="H76" s="402">
+        <v>125000</v>
+      </c>
+      <c r="I76" s="576">
+        <f>G76*H76</f>
+        <v>125000</v>
+      </c>
+      <c r="J76" s="576"/>
+      <c r="K76" s="502">
+        <f>I76</f>
+        <v>125000</v>
+      </c>
+      <c r="L76" s="577">
+        <v>125000</v>
+      </c>
+      <c r="M76" s="578"/>
+      <c r="N76" s="578">
+        <v>15000</v>
+      </c>
+      <c r="O76" s="578">
+        <v>55000</v>
+      </c>
+      <c r="P76" s="578">
+        <v>55000</v>
+      </c>
+      <c r="Q76" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="579"/>
+      <c r="B77" s="580"/>
+      <c r="C77" s="581" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="582" t="s">
+        <v>369</v>
+      </c>
+      <c r="E77" s="569"/>
+      <c r="F77" s="569" t="s">
+        <v>259</v>
+      </c>
+      <c r="G77" s="583">
+        <v>1</v>
+      </c>
+      <c r="H77" s="387">
+        <v>15000</v>
+      </c>
+      <c r="I77" s="583">
+        <f>H77*G77</f>
+        <v>15000</v>
+      </c>
+      <c r="J77" s="583"/>
+      <c r="K77" s="388">
+        <f>I77</f>
+        <v>15000</v>
+      </c>
+      <c r="L77" s="577">
+        <v>15000</v>
+      </c>
+      <c r="M77" s="584"/>
+      <c r="N77" s="583">
         <v>5000</v>
       </c>
-      <c r="T5" s="306" t="s">
-        <v>200</v>
-      </c>
-      <c r="U5" s="307">
-        <v>105000</v>
-      </c>
-      <c r="V5" s="306" t="s">
-        <v>199</v>
-      </c>
-      <c r="W5" s="307">
+      <c r="O77" s="583">
         <v>5000</v>
       </c>
-      <c r="X5" s="306" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y5" s="307">
-        <v>160000</v>
-      </c>
-      <c r="Z5" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA5" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB5" s="308"/>
-      <c r="AC5" s="308"/>
-      <c r="AD5" s="308"/>
-      <c r="AE5" s="308"/>
-      <c r="AF5" s="308" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG5" s="309">
-        <v>205000</v>
-      </c>
-      <c r="AH5" s="308"/>
-      <c r="AI5" s="308"/>
-      <c r="AJ5" s="308" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK5" s="309">
-        <v>60000</v>
-      </c>
-      <c r="AL5" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM5" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN5" s="312" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO5" s="313">
-        <v>449000</v>
-      </c>
-      <c r="AP5" s="312"/>
-      <c r="AQ5" s="312"/>
-      <c r="AR5" s="299"/>
-      <c r="AS5" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="303" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" s="304"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="304"/>
-      <c r="H6" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="305">
-        <v>6000</v>
-      </c>
-      <c r="J6" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="305">
-        <v>6000</v>
-      </c>
-      <c r="L6" s="306" t="s">
-        <v>278</v>
-      </c>
-      <c r="M6" s="306"/>
-      <c r="N6" s="306"/>
-      <c r="O6" s="306"/>
-      <c r="P6" s="306"/>
-      <c r="Q6" s="306"/>
-      <c r="R6" s="306" t="s">
-        <v>279</v>
-      </c>
-      <c r="S6" s="307">
+      <c r="P77" s="583">
+        <v>5000</v>
+      </c>
+      <c r="Q77" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="10" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="585"/>
+      <c r="B78" s="481"/>
+      <c r="C78" s="586" t="s">
+        <v>119</v>
+      </c>
+      <c r="D78" s="587" t="s">
+        <v>117</v>
+      </c>
+      <c r="E78" s="588"/>
+      <c r="F78" s="588" t="s">
+        <v>259</v>
+      </c>
+      <c r="G78" s="589">
+        <v>1</v>
+      </c>
+      <c r="H78" s="413">
+        <v>25000</v>
+      </c>
+      <c r="I78" s="485">
+        <f>H78*G78</f>
+        <v>25000</v>
+      </c>
+      <c r="J78" s="413"/>
+      <c r="K78" s="590">
+        <v>80000</v>
+      </c>
+      <c r="L78" s="377">
+        <v>25000</v>
+      </c>
+      <c r="M78" s="488"/>
+      <c r="N78" s="413">
+        <v>5000</v>
+      </c>
+      <c r="O78" s="413">
         <v>10000</v>
       </c>
-      <c r="T6" s="306" t="s">
-        <v>200</v>
-      </c>
-      <c r="U6" s="307">
-        <v>105000</v>
-      </c>
-      <c r="V6" s="306" t="s">
-        <v>199</v>
-      </c>
-      <c r="W6" s="307">
-        <v>5000</v>
-      </c>
-      <c r="X6" s="306" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y6" s="306"/>
-      <c r="Z6" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA6" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB6" s="316" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC6" s="317">
-        <v>4000</v>
-      </c>
-      <c r="AD6" s="309"/>
-      <c r="AE6" s="308"/>
-      <c r="AF6" s="308"/>
-      <c r="AG6" s="308"/>
-      <c r="AH6" s="308"/>
-      <c r="AI6" s="308"/>
-      <c r="AJ6" s="308" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK6" s="309">
-        <v>60000</v>
-      </c>
-      <c r="AL6" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM6" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN6" s="312" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO6" s="313">
-        <v>449000</v>
-      </c>
-      <c r="AP6" s="312"/>
-      <c r="AQ6" s="312"/>
-      <c r="AR6" s="299"/>
-      <c r="AS6" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" ht="60.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="303" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="304"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="304"/>
-      <c r="J7" s="304"/>
-      <c r="K7" s="304"/>
-      <c r="L7" s="306"/>
-      <c r="M7" s="306"/>
-      <c r="N7" s="306"/>
-      <c r="O7" s="306"/>
-      <c r="P7" s="306"/>
-      <c r="Q7" s="306"/>
-      <c r="R7" s="306" t="s">
-        <v>236</v>
-      </c>
-      <c r="S7" s="307">
-        <v>5000</v>
-      </c>
-      <c r="T7" s="306"/>
-      <c r="U7" s="306"/>
-      <c r="V7" s="306"/>
-      <c r="W7" s="306"/>
-      <c r="X7" s="306"/>
-      <c r="Y7" s="306"/>
-      <c r="Z7" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA7" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB7" s="308" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC7" s="309">
-        <v>21230</v>
-      </c>
-      <c r="AD7" s="308"/>
-      <c r="AE7" s="308"/>
-      <c r="AF7" s="308"/>
-      <c r="AG7" s="308"/>
-      <c r="AH7" s="308"/>
-      <c r="AI7" s="308"/>
-      <c r="AJ7" s="308" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK7" s="309">
-        <v>60000</v>
-      </c>
-      <c r="AL7" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM7" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN7" s="312"/>
-      <c r="AO7" s="312"/>
-      <c r="AP7" s="312"/>
-      <c r="AQ7" s="312"/>
-      <c r="AR7" s="299"/>
-      <c r="AS7" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" ht="72.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A8" s="303" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="304"/>
-      <c r="C8" s="304"/>
-      <c r="D8" s="304"/>
-      <c r="E8" s="304"/>
-      <c r="F8" s="304"/>
-      <c r="G8" s="304"/>
-      <c r="H8" s="304"/>
-      <c r="I8" s="304"/>
-      <c r="J8" s="304"/>
-      <c r="K8" s="304"/>
-      <c r="L8" s="306"/>
-      <c r="M8" s="306"/>
-      <c r="N8" s="306"/>
-      <c r="O8" s="306"/>
-      <c r="P8" s="306"/>
-      <c r="Q8" s="306"/>
-      <c r="R8" s="306"/>
-      <c r="S8" s="306"/>
-      <c r="T8" s="306"/>
-      <c r="U8" s="306"/>
-      <c r="V8" s="306" t="s">
-        <v>199</v>
-      </c>
-      <c r="W8" s="307">
-        <v>5000</v>
-      </c>
-      <c r="X8" s="306" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y8" s="306"/>
-      <c r="Z8" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA8" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB8" s="308"/>
-      <c r="AC8" s="308"/>
-      <c r="AD8" s="308"/>
-      <c r="AE8" s="308"/>
-      <c r="AF8" s="308" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG8" s="309">
-        <v>40000</v>
-      </c>
-      <c r="AH8" s="308"/>
-      <c r="AI8" s="308"/>
-      <c r="AJ8" s="308" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK8" s="309">
-        <v>60000</v>
-      </c>
-      <c r="AL8" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM8" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN8" s="312"/>
-      <c r="AO8" s="312"/>
-      <c r="AP8" s="312"/>
-      <c r="AQ8" s="312"/>
-      <c r="AR8" s="299"/>
-      <c r="AS8" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" ht="84.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="303" t="s">
-        <v>251</v>
-      </c>
-      <c r="B9" s="304"/>
-      <c r="C9" s="304"/>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="304"/>
-      <c r="H9" s="304"/>
-      <c r="I9" s="304"/>
-      <c r="J9" s="304"/>
-      <c r="K9" s="304"/>
-      <c r="L9" s="306"/>
-      <c r="M9" s="306"/>
-      <c r="N9" s="306"/>
-      <c r="O9" s="306"/>
-      <c r="P9" s="306"/>
-      <c r="Q9" s="306"/>
-      <c r="R9" s="306"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306" t="s">
-        <v>200</v>
-      </c>
-      <c r="U9" s="307">
-        <v>105000</v>
-      </c>
-      <c r="V9" s="306" t="s">
-        <v>199</v>
-      </c>
-      <c r="W9" s="307">
-        <v>5000</v>
-      </c>
-      <c r="X9" s="306" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y9" s="306"/>
-      <c r="Z9" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA9" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB9" s="308"/>
-      <c r="AC9" s="308"/>
-      <c r="AD9" s="308"/>
-      <c r="AE9" s="308"/>
-      <c r="AF9" s="308" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG9" s="309">
-        <v>40000</v>
-      </c>
-      <c r="AH9" s="308"/>
-      <c r="AI9" s="308"/>
-      <c r="AJ9" s="308" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK9" s="309">
-        <v>60000</v>
-      </c>
-      <c r="AL9" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM9" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN9" s="312"/>
-      <c r="AO9" s="312"/>
-      <c r="AP9" s="312"/>
-      <c r="AQ9" s="312"/>
-      <c r="AR9" s="299"/>
-      <c r="AS9" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="303" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="304"/>
-      <c r="C10" s="304"/>
-      <c r="D10" s="304"/>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
-      <c r="G10" s="304"/>
-      <c r="H10" s="304"/>
-      <c r="I10" s="304"/>
-      <c r="J10" s="304"/>
-      <c r="K10" s="304"/>
-      <c r="L10" s="306"/>
-      <c r="M10" s="306"/>
-      <c r="N10" s="306"/>
-      <c r="O10" s="306"/>
-      <c r="P10" s="306"/>
-      <c r="Q10" s="306"/>
-      <c r="R10" s="306"/>
-      <c r="S10" s="306"/>
-      <c r="T10" s="306"/>
-      <c r="U10" s="306"/>
-      <c r="V10" s="306"/>
-      <c r="W10" s="306"/>
-      <c r="X10" s="306"/>
-      <c r="Y10" s="306"/>
-      <c r="Z10" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA10" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB10" s="308"/>
-      <c r="AC10" s="308"/>
-      <c r="AD10" s="308"/>
-      <c r="AE10" s="308"/>
-      <c r="AF10" s="308"/>
-      <c r="AG10" s="308"/>
-      <c r="AH10" s="308"/>
-      <c r="AI10" s="308"/>
-      <c r="AJ10" s="308"/>
-      <c r="AK10" s="308"/>
-      <c r="AL10" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM10" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN10" s="312"/>
-      <c r="AO10" s="312"/>
-      <c r="AP10" s="312"/>
-      <c r="AQ10" s="312"/>
-      <c r="AR10" s="299"/>
-      <c r="AS10" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="303" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" s="304"/>
-      <c r="C11" s="304"/>
-      <c r="D11" s="304"/>
-      <c r="E11" s="304"/>
-      <c r="F11" s="304"/>
-      <c r="G11" s="304"/>
-      <c r="H11" s="304"/>
-      <c r="I11" s="304"/>
-      <c r="J11" s="304"/>
-      <c r="K11" s="304"/>
-      <c r="L11" s="306"/>
-      <c r="M11" s="306"/>
-      <c r="N11" s="306"/>
-      <c r="O11" s="306"/>
-      <c r="P11" s="306"/>
-      <c r="Q11" s="306"/>
-      <c r="R11" s="306"/>
-      <c r="S11" s="306"/>
-      <c r="T11" s="306"/>
-      <c r="U11" s="306"/>
-      <c r="V11" s="306"/>
-      <c r="W11" s="306"/>
-      <c r="X11" s="306"/>
-      <c r="Y11" s="306"/>
-      <c r="Z11" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA11" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB11" s="308"/>
-      <c r="AC11" s="308"/>
-      <c r="AD11" s="308"/>
-      <c r="AE11" s="308"/>
-      <c r="AF11" s="308"/>
-      <c r="AG11" s="308"/>
-      <c r="AH11" s="308"/>
-      <c r="AI11" s="308"/>
-      <c r="AJ11" s="308"/>
-      <c r="AK11" s="308"/>
-      <c r="AL11" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM11" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN11" s="312"/>
-      <c r="AO11" s="312"/>
-      <c r="AP11" s="312"/>
-      <c r="AQ11" s="312"/>
-      <c r="AR11" s="299"/>
-      <c r="AS11" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" ht="84.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="303" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" s="304" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="318">
-        <v>200000</v>
-      </c>
-      <c r="D12" s="304"/>
-      <c r="E12" s="304"/>
-      <c r="F12" s="304"/>
-      <c r="G12" s="304"/>
-      <c r="H12" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="I12" s="305">
-        <v>6000</v>
-      </c>
-      <c r="J12" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" s="305">
-        <v>6000</v>
-      </c>
-      <c r="L12" s="306" t="s">
-        <v>194</v>
-      </c>
-      <c r="M12" s="306"/>
-      <c r="N12" s="306" t="s">
-        <v>197</v>
-      </c>
-      <c r="O12" s="306"/>
-      <c r="P12" s="306" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q12" s="307">
-        <v>32000</v>
-      </c>
-      <c r="R12" s="306" t="s">
-        <v>177</v>
-      </c>
-      <c r="S12" s="307">
-        <v>17000</v>
-      </c>
-      <c r="T12" s="306" t="s">
-        <v>200</v>
-      </c>
-      <c r="U12" s="307">
-        <v>105000</v>
-      </c>
-      <c r="V12" s="306"/>
-      <c r="W12" s="306"/>
-      <c r="X12" s="306"/>
-      <c r="Y12" s="306"/>
-      <c r="Z12" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA12" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB12" s="308"/>
-      <c r="AC12" s="308"/>
-      <c r="AD12" s="308"/>
-      <c r="AE12" s="308"/>
-      <c r="AF12" s="308"/>
-      <c r="AG12" s="308"/>
-      <c r="AH12" s="308" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI12" s="309">
-        <v>150000</v>
-      </c>
-      <c r="AJ12" s="308" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK12" s="309">
-        <v>60000</v>
-      </c>
-      <c r="AL12" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM12" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN12" s="312"/>
-      <c r="AO12" s="312"/>
-      <c r="AP12" s="312"/>
-      <c r="AQ12" s="312"/>
-      <c r="AR12" s="299"/>
-      <c r="AS12" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="303" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="304"/>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="306"/>
-      <c r="M13" s="306"/>
-      <c r="N13" s="306"/>
-      <c r="O13" s="306"/>
-      <c r="P13" s="306"/>
-      <c r="Q13" s="306"/>
-      <c r="R13" s="306"/>
-      <c r="S13" s="306"/>
-      <c r="T13" s="306"/>
-      <c r="U13" s="306"/>
-      <c r="V13" s="306"/>
-      <c r="W13" s="306"/>
-      <c r="X13" s="306"/>
-      <c r="Y13" s="306"/>
-      <c r="Z13" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA13" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB13" s="308"/>
-      <c r="AC13" s="308"/>
-      <c r="AD13" s="308"/>
-      <c r="AE13" s="308"/>
-      <c r="AF13" s="308"/>
-      <c r="AG13" s="308"/>
-      <c r="AH13" s="308"/>
-      <c r="AI13" s="308"/>
-      <c r="AJ13" s="308"/>
-      <c r="AK13" s="308"/>
-      <c r="AL13" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM13" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN13" s="312"/>
-      <c r="AO13" s="312"/>
-      <c r="AP13" s="312"/>
-      <c r="AQ13" s="312"/>
-      <c r="AR13" s="299"/>
-      <c r="AS13" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="303" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="304"/>
-      <c r="C14" s="304"/>
-      <c r="D14" s="304"/>
-      <c r="E14" s="304"/>
-      <c r="F14" s="304"/>
-      <c r="G14" s="304"/>
-      <c r="H14" s="304"/>
-      <c r="I14" s="304"/>
-      <c r="J14" s="304"/>
-      <c r="K14" s="304"/>
-      <c r="L14" s="306"/>
-      <c r="M14" s="306"/>
-      <c r="N14" s="306"/>
-      <c r="O14" s="306"/>
-      <c r="P14" s="306"/>
-      <c r="Q14" s="306"/>
-      <c r="R14" s="306"/>
-      <c r="S14" s="306"/>
-      <c r="T14" s="306"/>
-      <c r="U14" s="306"/>
-      <c r="V14" s="306"/>
-      <c r="W14" s="306"/>
-      <c r="X14" s="306"/>
-      <c r="Y14" s="306"/>
-      <c r="Z14" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA14" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB14" s="308"/>
-      <c r="AC14" s="308"/>
-      <c r="AD14" s="308"/>
-      <c r="AE14" s="308"/>
-      <c r="AF14" s="308"/>
-      <c r="AG14" s="308"/>
-      <c r="AH14" s="308"/>
-      <c r="AI14" s="308"/>
-      <c r="AJ14" s="308"/>
-      <c r="AK14" s="308"/>
-      <c r="AL14" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM14" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN14" s="312"/>
-      <c r="AO14" s="312"/>
-      <c r="AP14" s="312"/>
-      <c r="AQ14" s="312"/>
-      <c r="AR14" s="299"/>
-      <c r="AS14" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="303" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" s="304"/>
-      <c r="C15" s="304"/>
-      <c r="D15" s="304"/>
-      <c r="E15" s="304"/>
-      <c r="F15" s="304"/>
-      <c r="G15" s="304"/>
-      <c r="H15" s="304"/>
-      <c r="I15" s="304"/>
-      <c r="J15" s="304"/>
-      <c r="K15" s="304"/>
-      <c r="L15" s="306"/>
-      <c r="M15" s="306"/>
-      <c r="N15" s="306"/>
-      <c r="O15" s="306"/>
-      <c r="P15" s="306"/>
-      <c r="Q15" s="306"/>
-      <c r="R15" s="306"/>
-      <c r="S15" s="306"/>
-      <c r="T15" s="306"/>
-      <c r="U15" s="306"/>
-      <c r="V15" s="306"/>
-      <c r="W15" s="306"/>
-      <c r="X15" s="306"/>
-      <c r="Y15" s="306"/>
-      <c r="Z15" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA15" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB15" s="308"/>
-      <c r="AC15" s="308"/>
-      <c r="AD15" s="308"/>
-      <c r="AE15" s="308"/>
-      <c r="AF15" s="308"/>
-      <c r="AG15" s="308"/>
-      <c r="AH15" s="308"/>
-      <c r="AI15" s="308"/>
-      <c r="AJ15" s="308"/>
-      <c r="AK15" s="308"/>
-      <c r="AL15" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM15" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN15" s="312"/>
-      <c r="AO15" s="312"/>
-      <c r="AP15" s="312"/>
-      <c r="AQ15" s="312"/>
-      <c r="AR15" s="299"/>
-      <c r="AS15" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="303" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16" s="304"/>
-      <c r="C16" s="304"/>
-      <c r="D16" s="304"/>
-      <c r="E16" s="304"/>
-      <c r="F16" s="304"/>
-      <c r="G16" s="304"/>
-      <c r="H16" s="304"/>
-      <c r="I16" s="304"/>
-      <c r="J16" s="304"/>
-      <c r="K16" s="304"/>
-      <c r="L16" s="306"/>
-      <c r="M16" s="306"/>
-      <c r="N16" s="306"/>
-      <c r="O16" s="306"/>
-      <c r="P16" s="306"/>
-      <c r="Q16" s="306"/>
-      <c r="R16" s="306"/>
-      <c r="S16" s="306"/>
-      <c r="T16" s="306"/>
-      <c r="U16" s="306"/>
-      <c r="V16" s="306"/>
-      <c r="W16" s="306"/>
-      <c r="X16" s="306"/>
-      <c r="Y16" s="306"/>
-      <c r="Z16" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA16" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB16" s="308"/>
-      <c r="AC16" s="308"/>
-      <c r="AD16" s="308"/>
-      <c r="AE16" s="308"/>
-      <c r="AF16" s="308"/>
-      <c r="AG16" s="308"/>
-      <c r="AH16" s="308"/>
-      <c r="AI16" s="308"/>
-      <c r="AJ16" s="308"/>
-      <c r="AK16" s="308"/>
-      <c r="AL16" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM16" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN16" s="312"/>
-      <c r="AO16" s="312"/>
-      <c r="AP16" s="312"/>
-      <c r="AQ16" s="312"/>
-      <c r="AR16" s="299"/>
-      <c r="AS16" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="303" t="s">
-        <v>259</v>
-      </c>
-      <c r="B17" s="304"/>
-      <c r="C17" s="304"/>
-      <c r="D17" s="304"/>
-      <c r="E17" s="304"/>
-      <c r="F17" s="304"/>
-      <c r="G17" s="304"/>
-      <c r="H17" s="304"/>
-      <c r="I17" s="304"/>
-      <c r="J17" s="304"/>
-      <c r="K17" s="304"/>
-      <c r="L17" s="306"/>
-      <c r="M17" s="306"/>
-      <c r="N17" s="306"/>
-      <c r="O17" s="306"/>
-      <c r="P17" s="306"/>
-      <c r="Q17" s="306"/>
-      <c r="R17" s="306"/>
-      <c r="S17" s="306"/>
-      <c r="T17" s="306"/>
-      <c r="U17" s="306"/>
-      <c r="V17" s="306"/>
-      <c r="W17" s="306"/>
-      <c r="X17" s="306"/>
-      <c r="Y17" s="306"/>
-      <c r="Z17" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA17" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB17" s="308"/>
-      <c r="AC17" s="308"/>
-      <c r="AD17" s="308"/>
-      <c r="AE17" s="308"/>
-      <c r="AF17" s="308"/>
-      <c r="AG17" s="308"/>
-      <c r="AH17" s="308"/>
-      <c r="AI17" s="308"/>
-      <c r="AJ17" s="308"/>
-      <c r="AK17" s="308"/>
-      <c r="AL17" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM17" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN17" s="312"/>
-      <c r="AO17" s="312"/>
-      <c r="AP17" s="312"/>
-      <c r="AQ17" s="312"/>
-      <c r="AR17" s="299"/>
-      <c r="AS17" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="303" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="304"/>
-      <c r="C18" s="304"/>
-      <c r="D18" s="304"/>
-      <c r="E18" s="304"/>
-      <c r="F18" s="304"/>
-      <c r="G18" s="304"/>
-      <c r="H18" s="304"/>
-      <c r="I18" s="304"/>
-      <c r="J18" s="304"/>
-      <c r="K18" s="304"/>
-      <c r="L18" s="306"/>
-      <c r="M18" s="306"/>
-      <c r="N18" s="306"/>
-      <c r="O18" s="306"/>
-      <c r="P18" s="306"/>
-      <c r="Q18" s="306"/>
-      <c r="R18" s="306"/>
-      <c r="S18" s="306"/>
-      <c r="T18" s="306"/>
-      <c r="U18" s="306"/>
-      <c r="V18" s="306"/>
-      <c r="W18" s="306"/>
-      <c r="X18" s="306"/>
-      <c r="Y18" s="306"/>
-      <c r="Z18" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA18" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB18" s="308"/>
-      <c r="AC18" s="308"/>
-      <c r="AD18" s="308"/>
-      <c r="AE18" s="308"/>
-      <c r="AF18" s="308"/>
-      <c r="AG18" s="308"/>
-      <c r="AH18" s="308"/>
-      <c r="AI18" s="308"/>
-      <c r="AJ18" s="308"/>
-      <c r="AK18" s="308"/>
-      <c r="AL18" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM18" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN18" s="312"/>
-      <c r="AO18" s="312"/>
-      <c r="AP18" s="312"/>
-      <c r="AQ18" s="312"/>
-      <c r="AR18" s="299"/>
-      <c r="AS18" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" ht="120.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="303" t="s">
-        <v>261</v>
-      </c>
-      <c r="B19" s="304" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="305">
-        <v>8000</v>
-      </c>
-      <c r="D19" s="304" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="305">
-        <v>370000</v>
-      </c>
-      <c r="F19" s="304" t="s">
-        <v>277</v>
-      </c>
-      <c r="G19" s="305">
-        <v>400000</v>
-      </c>
-      <c r="H19" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="I19" s="305">
-        <v>6000</v>
-      </c>
-      <c r="J19" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="K19" s="305">
-        <v>6000</v>
-      </c>
-      <c r="L19" s="306" t="s">
-        <v>227</v>
-      </c>
-      <c r="M19" s="306"/>
-      <c r="N19" s="306"/>
-      <c r="O19" s="306"/>
-      <c r="P19" s="306" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q19" s="307">
-        <v>32000</v>
-      </c>
-      <c r="R19" s="306" t="s">
-        <v>177</v>
-      </c>
-      <c r="S19" s="307">
-        <v>8500</v>
-      </c>
-      <c r="T19" s="306" t="s">
-        <v>200</v>
-      </c>
-      <c r="U19" s="307">
-        <v>105000</v>
-      </c>
-      <c r="V19" s="306" t="s">
-        <v>199</v>
-      </c>
-      <c r="W19" s="307">
-        <v>5000</v>
-      </c>
-      <c r="X19" s="306" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y19" s="307">
-        <v>160000</v>
-      </c>
-      <c r="Z19" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA19" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB19" s="308" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC19" s="309">
-        <v>21230</v>
-      </c>
-      <c r="AD19" s="308" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE19" s="309">
+      <c r="P78" s="413">
         <v>10000</v>
       </c>
-      <c r="AF19" s="308" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG19" s="309">
-        <v>205000</v>
-      </c>
-      <c r="AH19" s="308"/>
-      <c r="AI19" s="308"/>
-      <c r="AJ19" s="308" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK19" s="309">
-        <v>60000</v>
-      </c>
-      <c r="AL19" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM19" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN19" s="312" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO19" s="313">
-        <v>449000</v>
-      </c>
-      <c r="AP19" s="312" t="s">
-        <v>211</v>
-      </c>
-      <c r="AQ19" s="313">
-        <v>495000</v>
-      </c>
-      <c r="AR19" s="299"/>
-      <c r="AS19" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="303" t="s">
-        <v>262</v>
-      </c>
-      <c r="B20" s="304"/>
-      <c r="C20" s="304"/>
-      <c r="D20" s="304"/>
-      <c r="E20" s="304"/>
-      <c r="F20" s="304"/>
-      <c r="G20" s="304"/>
-      <c r="H20" s="304"/>
-      <c r="I20" s="304"/>
-      <c r="J20" s="304"/>
-      <c r="K20" s="304"/>
-      <c r="L20" s="306"/>
-      <c r="M20" s="306"/>
-      <c r="N20" s="306"/>
-      <c r="O20" s="306"/>
-      <c r="P20" s="306"/>
-      <c r="Q20" s="306"/>
-      <c r="R20" s="306"/>
-      <c r="S20" s="306"/>
-      <c r="T20" s="306"/>
-      <c r="U20" s="306"/>
-      <c r="V20" s="306"/>
-      <c r="W20" s="306"/>
-      <c r="X20" s="306"/>
-      <c r="Y20" s="306"/>
-      <c r="Z20" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA20" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB20" s="308"/>
-      <c r="AC20" s="308"/>
-      <c r="AD20" s="308"/>
-      <c r="AE20" s="308"/>
-      <c r="AF20" s="308"/>
-      <c r="AG20" s="308"/>
-      <c r="AH20" s="308"/>
-      <c r="AI20" s="308"/>
-      <c r="AJ20" s="308"/>
-      <c r="AK20" s="308"/>
-      <c r="AL20" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM20" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN20" s="312"/>
-      <c r="AO20" s="312"/>
-      <c r="AP20" s="312"/>
-      <c r="AQ20" s="312"/>
-      <c r="AR20" s="299"/>
-      <c r="AS20" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="303" t="s">
-        <v>263</v>
-      </c>
-      <c r="B21" s="304"/>
-      <c r="C21" s="304"/>
-      <c r="D21" s="304"/>
-      <c r="E21" s="304"/>
-      <c r="F21" s="304"/>
-      <c r="G21" s="304"/>
-      <c r="H21" s="304"/>
-      <c r="I21" s="304"/>
-      <c r="J21" s="304"/>
-      <c r="K21" s="304"/>
-      <c r="L21" s="306"/>
-      <c r="M21" s="306"/>
-      <c r="N21" s="306"/>
-      <c r="O21" s="306"/>
-      <c r="P21" s="306"/>
-      <c r="Q21" s="306"/>
-      <c r="R21" s="306"/>
-      <c r="S21" s="306"/>
-      <c r="T21" s="306"/>
-      <c r="U21" s="306"/>
-      <c r="V21" s="306"/>
-      <c r="W21" s="306"/>
-      <c r="X21" s="306"/>
-      <c r="Y21" s="306"/>
-      <c r="Z21" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA21" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB21" s="308"/>
-      <c r="AC21" s="308"/>
-      <c r="AD21" s="308"/>
-      <c r="AE21" s="308"/>
-      <c r="AF21" s="308"/>
-      <c r="AG21" s="308"/>
-      <c r="AH21" s="308"/>
-      <c r="AI21" s="308"/>
-      <c r="AJ21" s="308"/>
-      <c r="AK21" s="308"/>
-      <c r="AL21" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM21" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN21" s="312"/>
-      <c r="AO21" s="312"/>
-      <c r="AP21" s="312"/>
-      <c r="AQ21" s="312"/>
-      <c r="AR21" s="299"/>
-      <c r="AS21" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="303" t="s">
-        <v>264</v>
-      </c>
-      <c r="B22" s="304"/>
-      <c r="C22" s="304"/>
-      <c r="D22" s="304"/>
-      <c r="E22" s="304"/>
-      <c r="F22" s="304"/>
-      <c r="G22" s="304"/>
-      <c r="H22" s="304"/>
-      <c r="I22" s="304"/>
-      <c r="J22" s="304"/>
-      <c r="K22" s="304"/>
-      <c r="L22" s="306"/>
-      <c r="M22" s="306"/>
-      <c r="N22" s="306"/>
-      <c r="O22" s="306"/>
-      <c r="P22" s="306"/>
-      <c r="Q22" s="306"/>
-      <c r="R22" s="306"/>
-      <c r="S22" s="306"/>
-      <c r="T22" s="306"/>
-      <c r="U22" s="306"/>
-      <c r="V22" s="306"/>
-      <c r="W22" s="306"/>
-      <c r="X22" s="306"/>
-      <c r="Y22" s="306"/>
-      <c r="Z22" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA22" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB22" s="308"/>
-      <c r="AC22" s="308"/>
-      <c r="AD22" s="308"/>
-      <c r="AE22" s="308"/>
-      <c r="AF22" s="308"/>
-      <c r="AG22" s="308"/>
-      <c r="AH22" s="308"/>
-      <c r="AI22" s="308"/>
-      <c r="AJ22" s="308"/>
-      <c r="AK22" s="308"/>
-      <c r="AL22" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM22" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN22" s="312"/>
-      <c r="AO22" s="312"/>
-      <c r="AP22" s="312"/>
-      <c r="AQ22" s="312"/>
-      <c r="AR22" s="299"/>
-      <c r="AS22" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="303" t="s">
-        <v>265</v>
-      </c>
-      <c r="B23" s="304"/>
-      <c r="C23" s="304"/>
-      <c r="D23" s="304"/>
-      <c r="E23" s="304"/>
-      <c r="F23" s="304"/>
-      <c r="G23" s="304"/>
-      <c r="H23" s="304"/>
-      <c r="I23" s="304"/>
-      <c r="J23" s="304"/>
-      <c r="K23" s="304"/>
-      <c r="L23" s="306"/>
-      <c r="M23" s="306"/>
-      <c r="N23" s="306"/>
-      <c r="O23" s="306"/>
-      <c r="P23" s="306"/>
-      <c r="Q23" s="306"/>
-      <c r="R23" s="306"/>
-      <c r="S23" s="306"/>
-      <c r="T23" s="306"/>
-      <c r="U23" s="306"/>
-      <c r="V23" s="306"/>
-      <c r="W23" s="306"/>
-      <c r="X23" s="306"/>
-      <c r="Y23" s="306"/>
-      <c r="Z23" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA23" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB23" s="308"/>
-      <c r="AC23" s="308"/>
-      <c r="AD23" s="308"/>
-      <c r="AE23" s="308"/>
-      <c r="AF23" s="308"/>
-      <c r="AG23" s="308"/>
-      <c r="AH23" s="308"/>
-      <c r="AI23" s="308"/>
-      <c r="AJ23" s="308" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK23" s="309">
-        <v>60000</v>
-      </c>
-      <c r="AL23" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM23" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN23" s="312"/>
-      <c r="AO23" s="312"/>
-      <c r="AP23" s="312"/>
-      <c r="AQ23" s="312"/>
-      <c r="AR23" s="299"/>
-      <c r="AS23" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" ht="108.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="303" t="s">
-        <v>266</v>
-      </c>
-      <c r="B24" s="304"/>
-      <c r="C24" s="304"/>
-      <c r="D24" s="304"/>
-      <c r="E24" s="304"/>
-      <c r="F24" s="304"/>
-      <c r="G24" s="304"/>
-      <c r="H24" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="I24" s="305">
-        <v>6000</v>
-      </c>
-      <c r="J24" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="K24" s="305">
-        <v>6000</v>
-      </c>
-      <c r="L24" s="306" t="s">
-        <v>278</v>
-      </c>
-      <c r="M24" s="306"/>
-      <c r="N24" s="306"/>
-      <c r="O24" s="306"/>
-      <c r="P24" s="306"/>
-      <c r="Q24" s="306"/>
-      <c r="R24" s="306" t="s">
-        <v>177</v>
-      </c>
-      <c r="S24" s="307">
-        <v>8500</v>
-      </c>
-      <c r="T24" s="306" t="s">
-        <v>200</v>
-      </c>
-      <c r="U24" s="307">
-        <v>105000</v>
-      </c>
-      <c r="V24" s="306" t="s">
-        <v>199</v>
-      </c>
-      <c r="W24" s="307">
-        <v>5000</v>
-      </c>
-      <c r="X24" s="306" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y24" s="307">
-        <v>160000</v>
-      </c>
-      <c r="Z24" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA24" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB24" s="308" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC24" s="309">
-        <v>21230</v>
-      </c>
-      <c r="AD24" s="316" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE24" s="317">
-        <v>40000</v>
-      </c>
-      <c r="AF24" s="308" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG24" s="308"/>
-      <c r="AH24" s="308" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI24" s="309">
-        <v>150000</v>
-      </c>
-      <c r="AJ24" s="308" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK24" s="309">
-        <v>60000</v>
-      </c>
-      <c r="AL24" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM24" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN24" s="312" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO24" s="313">
-        <v>449000</v>
-      </c>
-      <c r="AP24" s="312" t="s">
-        <v>211</v>
-      </c>
-      <c r="AQ24" s="313">
-        <v>495000</v>
-      </c>
-      <c r="AR24" s="299"/>
-      <c r="AS24" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="303" t="s">
-        <v>267</v>
-      </c>
-      <c r="B25" s="304"/>
-      <c r="C25" s="304"/>
-      <c r="D25" s="304"/>
-      <c r="E25" s="304"/>
-      <c r="F25" s="304"/>
-      <c r="G25" s="304"/>
-      <c r="H25" s="304"/>
-      <c r="I25" s="304"/>
-      <c r="J25" s="304"/>
-      <c r="K25" s="304"/>
-      <c r="L25" s="306"/>
-      <c r="M25" s="306"/>
-      <c r="N25" s="306"/>
-      <c r="O25" s="306"/>
-      <c r="P25" s="306"/>
-      <c r="Q25" s="306"/>
-      <c r="R25" s="306"/>
-      <c r="S25" s="306"/>
-      <c r="T25" s="306"/>
-      <c r="U25" s="306"/>
-      <c r="V25" s="306"/>
-      <c r="W25" s="306"/>
-      <c r="X25" s="306"/>
-      <c r="Y25" s="306"/>
-      <c r="Z25" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA25" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB25" s="308"/>
-      <c r="AC25" s="308"/>
-      <c r="AD25" s="308"/>
-      <c r="AE25" s="308"/>
-      <c r="AF25" s="308"/>
-      <c r="AG25" s="308"/>
-      <c r="AH25" s="308"/>
-      <c r="AI25" s="308"/>
-      <c r="AJ25" s="308"/>
-      <c r="AK25" s="308"/>
-      <c r="AL25" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM25" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN25" s="312"/>
-      <c r="AO25" s="312"/>
-      <c r="AP25" s="312"/>
-      <c r="AQ25" s="312"/>
-      <c r="AR25" s="299"/>
-      <c r="AS25" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="303" t="s">
-        <v>268</v>
-      </c>
-      <c r="B26" s="304"/>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
-      <c r="F26" s="304"/>
-      <c r="G26" s="304"/>
-      <c r="H26" s="304"/>
-      <c r="I26" s="304"/>
-      <c r="J26" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="K26" s="304"/>
-      <c r="L26" s="306"/>
-      <c r="M26" s="306"/>
-      <c r="N26" s="306"/>
-      <c r="O26" s="306"/>
-      <c r="P26" s="306"/>
-      <c r="Q26" s="306"/>
-      <c r="R26" s="306"/>
-      <c r="S26" s="306"/>
-      <c r="T26" s="306"/>
-      <c r="U26" s="306"/>
-      <c r="V26" s="306"/>
-      <c r="W26" s="306"/>
-      <c r="X26" s="306"/>
-      <c r="Y26" s="306"/>
-      <c r="Z26" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA26" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB26" s="308"/>
-      <c r="AC26" s="308"/>
-      <c r="AD26" s="308"/>
-      <c r="AE26" s="308"/>
-      <c r="AF26" s="308"/>
-      <c r="AG26" s="308"/>
-      <c r="AH26" s="308"/>
-      <c r="AI26" s="308"/>
-      <c r="AJ26" s="308"/>
-      <c r="AK26" s="308"/>
-      <c r="AL26" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM26" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN26" s="312"/>
-      <c r="AO26" s="312"/>
-      <c r="AP26" s="312"/>
-      <c r="AQ26" s="312"/>
-      <c r="AR26" s="299"/>
-      <c r="AS26" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="303" t="s">
-        <v>269</v>
-      </c>
-      <c r="B27" s="304"/>
-      <c r="C27" s="304"/>
-      <c r="D27" s="304"/>
-      <c r="E27" s="304"/>
-      <c r="F27" s="304"/>
-      <c r="G27" s="304"/>
-      <c r="H27" s="304"/>
-      <c r="I27" s="304"/>
-      <c r="J27" s="304"/>
-      <c r="K27" s="304"/>
-      <c r="L27" s="306"/>
-      <c r="M27" s="306"/>
-      <c r="N27" s="306"/>
-      <c r="O27" s="306"/>
-      <c r="P27" s="306"/>
-      <c r="Q27" s="306"/>
-      <c r="R27" s="306"/>
-      <c r="S27" s="306"/>
-      <c r="T27" s="306"/>
-      <c r="U27" s="306"/>
-      <c r="V27" s="306"/>
-      <c r="W27" s="306"/>
-      <c r="X27" s="306"/>
-      <c r="Y27" s="306"/>
-      <c r="Z27" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA27" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB27" s="308"/>
-      <c r="AC27" s="308"/>
-      <c r="AD27" s="308"/>
-      <c r="AE27" s="308"/>
-      <c r="AF27" s="308"/>
-      <c r="AG27" s="308"/>
-      <c r="AH27" s="308"/>
-      <c r="AI27" s="308"/>
-      <c r="AJ27" s="308" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK27" s="309">
-        <v>60000</v>
-      </c>
-      <c r="AL27" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM27" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN27" s="312"/>
-      <c r="AO27" s="312"/>
-      <c r="AP27" s="312"/>
-      <c r="AQ27" s="312"/>
-      <c r="AR27" s="299"/>
-      <c r="AS27" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45" ht="120.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="303" t="s">
-        <v>270</v>
-      </c>
-      <c r="B28" s="304"/>
-      <c r="C28" s="304"/>
-      <c r="D28" s="304"/>
-      <c r="E28" s="304"/>
-      <c r="F28" s="304"/>
-      <c r="G28" s="304"/>
-      <c r="H28" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="I28" s="305">
-        <v>6000</v>
-      </c>
-      <c r="J28" s="304" t="s">
-        <v>198</v>
-      </c>
-      <c r="K28" s="305">
-        <v>6000</v>
-      </c>
-      <c r="L28" s="306" t="s">
-        <v>278</v>
-      </c>
-      <c r="M28" s="306"/>
-      <c r="N28" s="306" t="s">
-        <v>237</v>
-      </c>
-      <c r="O28" s="307">
-        <v>23000</v>
-      </c>
-      <c r="P28" s="306"/>
-      <c r="Q28" s="306"/>
-      <c r="R28" s="306" t="s">
-        <v>236</v>
-      </c>
-      <c r="S28" s="307">
-        <v>5000</v>
-      </c>
-      <c r="T28" s="306"/>
-      <c r="U28" s="306"/>
-      <c r="V28" s="306" t="s">
-        <v>241</v>
-      </c>
-      <c r="W28" s="307">
-        <v>30500</v>
-      </c>
-      <c r="X28" s="306" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y28" s="306"/>
-      <c r="Z28" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA28" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB28" s="316" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC28" s="317">
-        <v>100000</v>
-      </c>
-      <c r="AD28" s="308" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE28" s="309">
-        <v>10000</v>
-      </c>
-      <c r="AF28" s="308" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG28" s="309">
-        <v>53000</v>
-      </c>
-      <c r="AH28" s="308" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI28" s="309">
-        <v>40000</v>
-      </c>
-      <c r="AJ28" s="308" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK28" s="309">
-        <v>60000</v>
-      </c>
-      <c r="AL28" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM28" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN28" s="312"/>
-      <c r="AO28" s="312"/>
-      <c r="AP28" s="312"/>
-      <c r="AQ28" s="312"/>
-      <c r="AR28" s="299"/>
-      <c r="AS28" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="303" t="s">
-        <v>271</v>
-      </c>
-      <c r="B29" s="304"/>
-      <c r="C29" s="304"/>
-      <c r="D29" s="304"/>
-      <c r="E29" s="304"/>
-      <c r="F29" s="304"/>
-      <c r="G29" s="304"/>
-      <c r="H29" s="304"/>
-      <c r="I29" s="304"/>
-      <c r="J29" s="304"/>
-      <c r="K29" s="304"/>
-      <c r="L29" s="306"/>
-      <c r="M29" s="306"/>
-      <c r="N29" s="306"/>
-      <c r="O29" s="306"/>
-      <c r="P29" s="306"/>
-      <c r="Q29" s="306"/>
-      <c r="R29" s="306"/>
-      <c r="S29" s="306"/>
-      <c r="T29" s="306"/>
-      <c r="U29" s="306"/>
-      <c r="V29" s="306"/>
-      <c r="W29" s="306"/>
-      <c r="X29" s="306"/>
-      <c r="Y29" s="306"/>
-      <c r="Z29" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA29" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB29" s="308"/>
-      <c r="AC29" s="308"/>
-      <c r="AD29" s="308"/>
-      <c r="AE29" s="308"/>
-      <c r="AF29" s="308"/>
-      <c r="AG29" s="308"/>
-      <c r="AH29" s="308"/>
-      <c r="AI29" s="308"/>
-      <c r="AJ29" s="308" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK29" s="309">
-        <v>60000</v>
-      </c>
-      <c r="AL29" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM29" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN29" s="312"/>
-      <c r="AO29" s="312"/>
-      <c r="AP29" s="312"/>
-      <c r="AQ29" s="312"/>
-      <c r="AR29" s="299"/>
-      <c r="AS29" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="303" t="s">
-        <v>272</v>
-      </c>
-      <c r="B30" s="304"/>
-      <c r="C30" s="304"/>
-      <c r="D30" s="304"/>
-      <c r="E30" s="304"/>
-      <c r="F30" s="304"/>
-      <c r="G30" s="304"/>
-      <c r="H30" s="304"/>
-      <c r="I30" s="304"/>
-      <c r="J30" s="304"/>
-      <c r="K30" s="304"/>
-      <c r="L30" s="306"/>
-      <c r="M30" s="306"/>
-      <c r="N30" s="306"/>
-      <c r="O30" s="306"/>
-      <c r="P30" s="306"/>
-      <c r="Q30" s="306"/>
-      <c r="R30" s="306"/>
-      <c r="S30" s="306"/>
-      <c r="T30" s="306"/>
-      <c r="U30" s="306"/>
-      <c r="V30" s="306"/>
-      <c r="W30" s="306"/>
-      <c r="X30" s="306"/>
-      <c r="Y30" s="306"/>
-      <c r="Z30" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA30" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB30" s="308"/>
-      <c r="AC30" s="308"/>
-      <c r="AD30" s="308"/>
-      <c r="AE30" s="308"/>
-      <c r="AF30" s="308"/>
-      <c r="AG30" s="308"/>
-      <c r="AH30" s="308"/>
-      <c r="AI30" s="308"/>
-      <c r="AJ30" s="308"/>
-      <c r="AK30" s="308"/>
-      <c r="AL30" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM30" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN30" s="312"/>
-      <c r="AO30" s="312"/>
-      <c r="AP30" s="312"/>
-      <c r="AQ30" s="312"/>
-      <c r="AR30" s="299"/>
-      <c r="AS30" s="314">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="303" t="s">
-        <v>273</v>
-      </c>
-      <c r="B31" s="304"/>
-      <c r="C31" s="304"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="304"/>
-      <c r="F31" s="304"/>
-      <c r="G31" s="304"/>
-      <c r="H31" s="304"/>
-      <c r="I31" s="304"/>
-      <c r="J31" s="304"/>
-      <c r="K31" s="304"/>
-      <c r="L31" s="306"/>
-      <c r="M31" s="306"/>
-      <c r="N31" s="306"/>
-      <c r="O31" s="306"/>
-      <c r="P31" s="306"/>
-      <c r="Q31" s="306"/>
-      <c r="R31" s="306"/>
-      <c r="S31" s="306"/>
-      <c r="T31" s="306"/>
-      <c r="U31" s="306"/>
-      <c r="V31" s="306"/>
-      <c r="W31" s="306"/>
-      <c r="X31" s="306"/>
-      <c r="Y31" s="306"/>
-      <c r="Z31" s="306" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA31" s="307">
-        <v>465</v>
-      </c>
-      <c r="AB31" s="308"/>
-      <c r="AC31" s="308"/>
-      <c r="AD31" s="308"/>
-      <c r="AE31" s="308"/>
-      <c r="AF31" s="308"/>
-      <c r="AG31" s="308"/>
-      <c r="AH31" s="308"/>
-      <c r="AI31" s="308"/>
-      <c r="AJ31" s="308"/>
-      <c r="AK31" s="308"/>
-      <c r="AL31" s="310" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM31" s="311">
-        <v>48000</v>
-      </c>
-      <c r="AN31" s="312"/>
-      <c r="AO31" s="312"/>
-      <c r="AP31" s="312"/>
-      <c r="AQ31" s="312"/>
-      <c r="AR31" s="299"/>
-      <c r="AS31" s="314">
-        <v>0.2</v>
-      </c>
+      <c r="Q78" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="591" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="592"/>
+      <c r="C79" s="592"/>
+      <c r="D79" s="592"/>
+      <c r="E79" s="592"/>
+      <c r="F79" s="592"/>
+      <c r="G79" s="592"/>
+      <c r="H79" s="593"/>
+      <c r="I79" s="367">
+        <f>SUM(I76:I78)</f>
+        <v>165000</v>
+      </c>
+      <c r="J79" s="367">
+        <f t="shared" ref="J79:P79" si="27">SUM(J76:J78)</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="369">
+        <f t="shared" si="27"/>
+        <v>220000</v>
+      </c>
+      <c r="L79" s="367">
+        <f t="shared" si="27"/>
+        <v>165000</v>
+      </c>
+      <c r="M79" s="369">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="367">
+        <f t="shared" si="27"/>
+        <v>25000</v>
+      </c>
+      <c r="O79" s="594">
+        <f t="shared" si="27"/>
+        <v>70000</v>
+      </c>
+      <c r="P79" s="595">
+        <f t="shared" si="27"/>
+        <v>70000</v>
+      </c>
+      <c r="Q79" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="R79" s="10"/>
+    </row>
+    <row r="80" spans="1:18" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="596" t="s">
+        <v>370</v>
+      </c>
+      <c r="B80" s="597"/>
+      <c r="C80" s="597"/>
+      <c r="D80" s="597"/>
+      <c r="E80" s="597"/>
+      <c r="F80" s="597"/>
+      <c r="G80" s="597"/>
+      <c r="H80" s="598"/>
+      <c r="I80" s="599">
+        <f>I79+I75+I69</f>
+        <v>1924447</v>
+      </c>
+      <c r="J80" s="599">
+        <f t="shared" ref="J80:L80" si="28">J79+J75+J69</f>
+        <v>1899936</v>
+      </c>
+      <c r="K80" s="599">
+        <f t="shared" si="28"/>
+        <v>1979447</v>
+      </c>
+      <c r="L80" s="599">
+        <f t="shared" si="28"/>
+        <v>684440</v>
+      </c>
+      <c r="M80" s="599">
+        <f>M79+M75+M69</f>
+        <v>129860</v>
+      </c>
+      <c r="N80" s="599">
+        <f t="shared" ref="N80:P80" si="29">N79+N75+N69</f>
+        <v>154860</v>
+      </c>
+      <c r="O80" s="599">
+        <f t="shared" si="29"/>
+        <v>199860</v>
+      </c>
+      <c r="P80" s="599">
+        <f t="shared" si="29"/>
+        <v>199860</v>
+      </c>
+      <c r="Q80" s="9" t="str">
+        <f t="shared" ref="Q80:Q85" si="30">IF(L80=M80+N80+O80+P80,"OK",M80-N80-O80-P80)</f>
+        <v>OK</v>
+      </c>
+      <c r="R80" s="10"/>
+    </row>
+    <row r="81" spans="1:18" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="574" t="s">
+        <v>371</v>
+      </c>
+      <c r="B81" s="600" t="s">
+        <v>372</v>
+      </c>
+      <c r="C81" s="574" t="s">
+        <v>373</v>
+      </c>
+      <c r="D81" s="601" t="s">
+        <v>372</v>
+      </c>
+      <c r="E81" s="602"/>
+      <c r="F81" s="602"/>
+      <c r="G81" s="603"/>
+      <c r="H81" s="604"/>
+      <c r="I81" s="458">
+        <v>22539</v>
+      </c>
+      <c r="J81" s="458"/>
+      <c r="K81" s="458">
+        <f>I81</f>
+        <v>22539</v>
+      </c>
+      <c r="L81" s="605">
+        <v>5634</v>
+      </c>
+      <c r="M81" s="606">
+        <v>1408</v>
+      </c>
+      <c r="N81" s="606">
+        <v>1408</v>
+      </c>
+      <c r="O81" s="606">
+        <v>1409</v>
+      </c>
+      <c r="P81" s="606">
+        <v>1409</v>
+      </c>
+      <c r="Q81" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" s="4" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="288" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="289"/>
+      <c r="C82" s="289"/>
+      <c r="D82" s="289"/>
+      <c r="E82" s="289"/>
+      <c r="F82" s="289"/>
+      <c r="G82" s="289"/>
+      <c r="H82" s="290"/>
+      <c r="I82" s="607">
+        <f t="shared" ref="I82:P82" si="31">I81+I80+I66+I62+I53</f>
+        <v>6936420</v>
+      </c>
+      <c r="J82" s="607">
+        <f t="shared" si="31"/>
+        <v>2039936</v>
+      </c>
+      <c r="K82" s="607">
+        <f t="shared" si="31"/>
+        <v>7400800</v>
+      </c>
+      <c r="L82" s="607">
+        <f t="shared" si="31"/>
+        <v>4202525.7158540003</v>
+      </c>
+      <c r="M82" s="608">
+        <f t="shared" si="31"/>
+        <v>767268</v>
+      </c>
+      <c r="N82" s="608">
+        <f t="shared" si="31"/>
+        <v>452600</v>
+      </c>
+      <c r="O82" s="608">
+        <f t="shared" si="31"/>
+        <v>1792339</v>
+      </c>
+      <c r="P82" s="608">
+        <f t="shared" si="31"/>
+        <v>1190318.7158540001</v>
+      </c>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="10"/>
+    </row>
+    <row r="83" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="46"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+    </row>
+    <row r="84" spans="1:18" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="47"/>
+      <c r="B84" s="609" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A85" s="46"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="K85" s="51"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A86" s="46"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A87" s="46"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A88" s="46"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A89" s="46"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A91" s="46"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A92" s="46"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A93" s="46"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A94" s="46"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AS31" xr:uid="{A17FFD54-FA31-4505-83F8-607C1681873F}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="66">
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A63:P63"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A67:P67"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:P45"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M8:P8"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>